--- a/GCs.xlsx
+++ b/GCs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://imperiallondon-my.sharepoint.com/personal/att22_ic_ac_uk/Documents/AAYEAR4/APO1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natur\Documents\AOBaddies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="855" documentId="8_{1BB338DD-5CE3-4F3B-820B-FA7D83DA8823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4105E4B2-48B9-49C0-9732-F232B0B75AA4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3AD5CF5-EB09-40CD-A08F-45EA97C83165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11688" yWindow="12852" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{8EFD0542-B832-47AD-A0F7-47D90D0B881B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{8EFD0542-B832-47AD-A0F7-47D90D0B881B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <sheet name="CpGC" sheetId="5" r:id="rId8"/>
     <sheet name="Chec king" sheetId="8" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -120,7 +120,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="337">
   <si>
     <t>Group</t>
   </si>
@@ -2916,6 +2916,9 @@
   </si>
   <si>
     <t>RED</t>
+  </si>
+  <si>
+    <t>ai</t>
   </si>
 </sst>
 </file>
@@ -3108,7 +3111,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3149,6 +3152,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -12511,7 +12517,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{297960EB-DBC8-44A4-9F73-359D156C6248}">
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="71" workbookViewId="0">
+    <sheetView zoomScale="71" workbookViewId="0">
       <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
@@ -15386,10 +15392,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23F6FF9F-8B9B-488C-B485-3ABBC4416DFF}">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15401,7 +15407,7 @@
     <col min="8" max="8" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -15426,8 +15432,11 @@
       <c r="H1" s="13" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="20" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>293</v>
       </c>
@@ -15456,8 +15465,11 @@
         <f>0.0000000967</f>
         <v>9.6699999999999999E-8</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>294</v>
       </c>
@@ -15486,8 +15498,11 @@
         <f>0.0000000119</f>
         <v>1.1900000000000001E-8</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>295</v>
       </c>
@@ -15516,8 +15531,11 @@
         <f>0.00000012</f>
         <v>1.1999999999999999E-7</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>296</v>
       </c>
@@ -15546,8 +15564,11 @@
         <f>0.000000301</f>
         <v>3.0100000000000001E-7</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>297</v>
       </c>
@@ -15576,8 +15597,11 @@
         <f>-0.000000103</f>
         <v>-1.03E-7</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>298</v>
       </c>
@@ -15605,8 +15629,11 @@
         <f>0.0000000356</f>
         <v>3.5600000000000001E-8</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>299</v>
       </c>
@@ -15635,8 +15662,11 @@
         <f>0.000000146</f>
         <v>1.4600000000000001E-7</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>300</v>
       </c>
@@ -15665,8 +15695,11 @@
         <f>-0.0000000502</f>
         <v>-5.02E-8</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>301</v>
       </c>
@@ -15694,8 +15727,11 @@
         <f>-0.000000018</f>
         <v>-1.7999999999999999E-8</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>302</v>
       </c>
@@ -15724,8 +15760,11 @@
         <f>0.0000000624</f>
         <v>6.2400000000000003E-8</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>303</v>
       </c>
@@ -15754,8 +15793,11 @@
         <f>0.000000469</f>
         <v>4.6899999999999998E-7</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>304</v>
       </c>
@@ -15784,8 +15826,11 @@
         <f>-0.0000000159</f>
         <v>-1.59E-8</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>305</v>
       </c>
@@ -15814,8 +15859,11 @@
         <f>0.0000000678</f>
         <v>6.7799999999999998E-8</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>306</v>
       </c>
@@ -15843,8 +15891,11 @@
         <f>-0.0000000745</f>
         <v>-7.4499999999999999E-8</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>307</v>
       </c>
@@ -15873,8 +15924,11 @@
         <f>-0.0000000988</f>
         <v>-9.8799999999999998E-8</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>308</v>
       </c>
@@ -15903,8 +15957,11 @@
         <f>0.0000000494</f>
         <v>4.9399999999999999E-8</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>309</v>
       </c>
@@ -15933,8 +15990,11 @@
         <f>-0.0000000548</f>
         <v>-5.4800000000000001E-8</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>310</v>
       </c>
@@ -15963,8 +16023,11 @@
         <f>-0.0000000386</f>
         <v>-3.8600000000000002E-8</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>311</v>
       </c>
@@ -15992,8 +16055,11 @@
         <f>0.00000000286</f>
         <v>2.86E-9</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>312</v>
       </c>
@@ -16022,8 +16088,11 @@
         <f>-0.000000013</f>
         <v>-1.3000000000000001E-8</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>313</v>
       </c>
@@ -16052,8 +16121,11 @@
         <f>-0.0000000988</f>
         <v>-9.8799999999999998E-8</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>38</v>
       </c>
@@ -16082,8 +16154,11 @@
         <f>-0.0000000687</f>
         <v>-6.87E-8</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>314</v>
       </c>
@@ -16112,8 +16187,11 @@
         <f>-0.0000000452</f>
         <v>-4.5200000000000001E-8</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>315</v>
       </c>
@@ -16142,8 +16220,11 @@
         <f>-0.0000000178</f>
         <v>-1.7800000000000001E-8</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>316</v>
       </c>
@@ -16172,8 +16253,11 @@
         <f>-0.0000000976</f>
         <v>-9.76E-8</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>189</v>
       </c>
@@ -16201,8 +16285,11 @@
         <f>0.0000000105</f>
         <v>1.05E-8</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>317</v>
       </c>
@@ -16231,8 +16318,11 @@
         <f>-0.0000000628</f>
         <v>-6.2800000000000006E-8</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>318</v>
       </c>
@@ -16261,8 +16351,11 @@
         <f>0.000000146</f>
         <v>1.4600000000000001E-7</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>319</v>
       </c>
@@ -16287,8 +16380,11 @@
       <c r="H30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>320</v>
       </c>
@@ -16317,8 +16413,11 @@
         <f>-0.000000026</f>
         <v>-2.6000000000000001E-8</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>321</v>
       </c>
@@ -16347,8 +16446,11 @@
         <f>-0.0000000888</f>
         <v>-8.8800000000000001E-8</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>322</v>
       </c>
@@ -16377,8 +16479,11 @@
         <f>-0.0000000888</f>
         <v>-8.8800000000000001E-8</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>323</v>
       </c>
@@ -16406,6 +16511,9 @@
       <c r="H34">
         <f>-0.0000000211</f>
         <v>-2.11E-8</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/GCs.xlsx
+++ b/GCs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://imperiallondon-my.sharepoint.com/personal/att22_ic_ac_uk/Documents/AAYEAR4/APO1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="855" documentId="8_{1BB338DD-5CE3-4F3B-820B-FA7D83DA8823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4105E4B2-48B9-49C0-9732-F232B0B75AA4}"/>
+  <xr:revisionPtr revIDLastSave="911" documentId="8_{1BB338DD-5CE3-4F3B-820B-FA7D83DA8823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B4AA674E-550E-4557-9964-5AFB455E8856}"/>
   <bookViews>
-    <workbookView xWindow="-11688" yWindow="12852" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{8EFD0542-B832-47AD-A0F7-47D90D0B881B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{8EFD0542-B832-47AD-A0F7-47D90D0B881B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <sheet name="CpGC" sheetId="5" r:id="rId8"/>
     <sheet name="Chec king" sheetId="8" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -120,7 +120,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="338">
   <si>
     <t>Group</t>
   </si>
@@ -2903,9 +2903,6 @@
     <t>D0i</t>
   </si>
   <si>
-    <t>maxgroups</t>
-  </si>
-  <si>
     <t>O</t>
   </si>
   <si>
@@ -2916,6 +2913,15 @@
   </si>
   <si>
     <t>RED</t>
+  </si>
+  <si>
+    <t>nimax</t>
+  </si>
+  <si>
+    <t>nimin</t>
+  </si>
+  <si>
+    <t>ai</t>
   </si>
 </sst>
 </file>
@@ -3108,7 +3114,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3149,6 +3155,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -12509,10 +12518,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{297960EB-DBC8-44A4-9F73-359D156C6248}">
-  <dimension ref="A1:K38"/>
+  <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="71" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView zoomScale="71" workbookViewId="0">
+      <selection activeCell="P35" sqref="P35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12520,7 +12529,7 @@
     <col min="4" max="4" width="47.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>227</v>
       </c>
@@ -12554,8 +12563,14 @@
       <c r="K1" s="13" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -12589,8 +12604,14 @@
       <c r="K2">
         <v>2.3800000000000002E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2">
+        <v>8</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -12624,8 +12645,14 @@
       <c r="K3">
         <v>1.66E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3">
+        <v>8</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -12659,8 +12686,14 @@
       <c r="K4">
         <v>8.3999999999999995E-3</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4">
+        <v>8</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -12694,8 +12727,14 @@
       <c r="K5">
         <v>-1.5E-3</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5">
+        <v>8</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>15</v>
       </c>
@@ -12729,8 +12768,14 @@
       <c r="K6">
         <v>1.2E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6">
+        <v>8</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>19</v>
       </c>
@@ -12764,8 +12809,14 @@
       <c r="K7">
         <v>5.1999999999999998E-3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7">
+        <v>8</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>20</v>
       </c>
@@ -12799,8 +12850,14 @@
       <c r="K8">
         <v>3.0200000000000001E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8">
+        <v>8</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>29</v>
       </c>
@@ -12834,8 +12891,14 @@
       <c r="K9">
         <v>4.1999999999999997E-3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L9">
+        <v>8</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>49</v>
       </c>
@@ -12869,8 +12932,14 @@
       <c r="K10">
         <v>2.81E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L10">
+        <v>8</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>50</v>
       </c>
@@ -12904,8 +12973,14 @@
       <c r="K11">
         <v>2.2800000000000001E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L11">
+        <v>8</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>54</v>
       </c>
@@ -12939,8 +13014,14 @@
       <c r="K12">
         <v>2.6200000000000001E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L12">
+        <v>8</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>55</v>
       </c>
@@ -12974,8 +13055,14 @@
       <c r="K13">
         <v>2.1399999999999999E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L13">
+        <v>8</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>57</v>
       </c>
@@ -13009,8 +13096,14 @@
       <c r="K14">
         <v>2.7900000000000001E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L14">
+        <v>8</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>58</v>
       </c>
@@ -13044,8 +13137,14 @@
       <c r="K15">
         <v>2.46E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L15">
+        <v>8</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>59</v>
       </c>
@@ -13079,8 +13178,14 @@
       <c r="K16">
         <v>1.8200000000000001E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L16">
+        <v>8</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>60</v>
       </c>
@@ -13114,8 +13219,14 @@
       <c r="K17">
         <v>2.6499999999999999E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L17">
+        <v>8</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>61</v>
       </c>
@@ -13149,8 +13260,14 @@
       <c r="K18">
         <v>1.9E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L18">
+        <v>8</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>65</v>
       </c>
@@ -13184,8 +13301,14 @@
       <c r="K19">
         <v>9.5999999999999992E-3</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L19">
+        <v>8</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>134</v>
       </c>
@@ -13219,8 +13342,14 @@
       <c r="K20">
         <v>4.1700000000000001E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L20">
+        <v>8</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>168</v>
       </c>
@@ -13254,8 +13383,14 @@
       <c r="K21">
         <v>1.6E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L21">
+        <v>8</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>169</v>
       </c>
@@ -13289,8 +13424,14 @@
       <c r="K22">
         <v>5.8999999999999999E-3</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L22">
+        <v>8</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>175</v>
       </c>
@@ -13324,8 +13465,14 @@
       <c r="K23">
         <v>3.5000000000000001E-3</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L23">
+        <v>8</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>176</v>
       </c>
@@ -13359,8 +13506,14 @@
       <c r="K24">
         <v>1.6999999999999999E-3</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L24">
+        <v>8</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>179</v>
       </c>
@@ -13394,8 +13547,14 @@
       <c r="K25">
         <v>2E-3</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L25">
+        <v>8</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>180</v>
       </c>
@@ -13429,8 +13588,14 @@
       <c r="K26">
         <v>1.2E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L26">
+        <v>8</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>184</v>
       </c>
@@ -13464,8 +13629,14 @@
       <c r="K27">
         <v>1.04E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L27">
+        <v>8</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
         <v>21</v>
       </c>
@@ -13499,8 +13670,14 @@
       <c r="K28" s="14">
         <v>2.29E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L28">
+        <v>8</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
         <v>30</v>
       </c>
@@ -13534,8 +13711,14 @@
       <c r="K29" s="14">
         <v>1.7000000000000001E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L29">
+        <v>8</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="14">
         <v>31</v>
       </c>
@@ -13569,8 +13752,14 @@
       <c r="K30" s="14">
         <v>2.07E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L30">
+        <v>8</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="14">
         <v>32</v>
       </c>
@@ -13604,8 +13793,14 @@
       <c r="K31" s="14">
         <v>4.7800000000000002E-2</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L31">
+        <v>8</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="14">
         <v>62</v>
       </c>
@@ -13639,8 +13834,14 @@
       <c r="K32" s="14">
         <v>2.5999999999999999E-2</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L32">
+        <v>8</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="14">
         <v>63</v>
       </c>
@@ -13674,8 +13875,14 @@
       <c r="K33" s="14">
         <v>1.18E-2</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L33">
+        <v>8</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="14">
         <v>126</v>
       </c>
@@ -13709,8 +13916,14 @@
       <c r="K34" s="14">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L34">
+        <v>8</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="14">
         <v>128</v>
       </c>
@@ -13744,8 +13957,14 @@
       <c r="K35" s="14">
         <v>2.1299999999999999E-2</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="14">
         <v>148</v>
       </c>
@@ -13779,8 +13998,14 @@
       <c r="K36" s="14">
         <v>1.43E-2</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L36">
+        <v>8</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="14">
         <v>149</v>
       </c>
@@ -13814,8 +14039,14 @@
       <c r="K37" s="14">
         <v>2.3699999999999999E-2</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L37">
+        <v>8</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="14">
         <v>170</v>
       </c>
@@ -13848,6 +14079,12 @@
       </c>
       <c r="K38" s="14">
         <v>0.13930000000000001</v>
+      </c>
+      <c r="L38">
+        <v>8</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -15064,10 +15301,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7EBF146-937E-4601-B58E-56AADBC56C60}">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="B1" sqref="B1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15075,308 +15312,533 @@
     <col min="1" max="1" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>291</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+      <c r="C1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>237</v>
       </c>
       <c r="B2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>239</v>
       </c>
       <c r="B3">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
       <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
       <c r="B6">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>26</v>
       </c>
       <c r="B7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>247</v>
       </c>
       <c r="B8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>36</v>
       </c>
       <c r="B9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>257</v>
       </c>
       <c r="B10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>258</v>
       </c>
       <c r="B11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>259</v>
       </c>
       <c r="B12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>260</v>
       </c>
       <c r="B13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>261</v>
       </c>
       <c r="B14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>262</v>
       </c>
       <c r="B15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>66</v>
       </c>
       <c r="B16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>263</v>
       </c>
       <c r="B17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>264</v>
       </c>
       <c r="B18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>266</v>
       </c>
       <c r="B19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>278</v>
       </c>
       <c r="B20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>288</v>
       </c>
       <c r="B21">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>175</v>
       </c>
       <c r="B22">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>181</v>
       </c>
       <c r="B23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>182</v>
       </c>
       <c r="B24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>185</v>
       </c>
       <c r="B25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>186</v>
       </c>
       <c r="B26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>190</v>
       </c>
       <c r="B27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>248</v>
       </c>
       <c r="B28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>37</v>
       </c>
       <c r="B29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>38</v>
       </c>
       <c r="B30">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>39</v>
       </c>
       <c r="B31">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>265</v>
       </c>
       <c r="B32">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>70</v>
       </c>
       <c r="B33">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>133</v>
       </c>
       <c r="B34">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>135</v>
       </c>
       <c r="B35">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
         <v>155</v>
       </c>
       <c r="B36">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
         <v>284</v>
       </c>
       <c r="B37">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
         <v>176</v>
       </c>
       <c r="B38">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -15386,10 +15848,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23F6FF9F-8B9B-488C-B485-3ABBC4416DFF}">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView tabSelected="1" zoomScale="146" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15401,7 +15863,7 @@
     <col min="8" max="8" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -15426,8 +15888,11 @@
       <c r="H1" s="13" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="20" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>293</v>
       </c>
@@ -15456,8 +15921,11 @@
         <f>0.0000000967</f>
         <v>9.6699999999999999E-8</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>294</v>
       </c>
@@ -15486,8 +15954,11 @@
         <f>0.0000000119</f>
         <v>1.1900000000000001E-8</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>295</v>
       </c>
@@ -15516,8 +15987,11 @@
         <f>0.00000012</f>
         <v>1.1999999999999999E-7</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>296</v>
       </c>
@@ -15546,8 +16020,11 @@
         <f>0.000000301</f>
         <v>3.0100000000000001E-7</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>297</v>
       </c>
@@ -15576,8 +16053,11 @@
         <f>-0.000000103</f>
         <v>-1.03E-7</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>298</v>
       </c>
@@ -15605,8 +16085,11 @@
         <f>0.0000000356</f>
         <v>3.5600000000000001E-8</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>299</v>
       </c>
@@ -15635,8 +16118,11 @@
         <f>0.000000146</f>
         <v>1.4600000000000001E-7</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>300</v>
       </c>
@@ -15665,8 +16151,11 @@
         <f>-0.0000000502</f>
         <v>-5.02E-8</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>301</v>
       </c>
@@ -15694,8 +16183,11 @@
         <f>-0.000000018</f>
         <v>-1.7999999999999999E-8</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>302</v>
       </c>
@@ -15724,8 +16216,11 @@
         <f>0.0000000624</f>
         <v>6.2400000000000003E-8</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>303</v>
       </c>
@@ -15754,8 +16249,11 @@
         <f>0.000000469</f>
         <v>4.6899999999999998E-7</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>304</v>
       </c>
@@ -15784,8 +16282,11 @@
         <f>-0.0000000159</f>
         <v>-1.59E-8</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>305</v>
       </c>
@@ -15814,8 +16315,11 @@
         <f>0.0000000678</f>
         <v>6.7799999999999998E-8</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>306</v>
       </c>
@@ -15843,8 +16347,11 @@
         <f>-0.0000000745</f>
         <v>-7.4499999999999999E-8</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>307</v>
       </c>
@@ -15873,8 +16380,11 @@
         <f>-0.0000000988</f>
         <v>-9.8799999999999998E-8</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>308</v>
       </c>
@@ -15903,8 +16413,11 @@
         <f>0.0000000494</f>
         <v>4.9399999999999999E-8</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>309</v>
       </c>
@@ -15933,8 +16446,11 @@
         <f>-0.0000000548</f>
         <v>-5.4800000000000001E-8</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>310</v>
       </c>
@@ -15963,8 +16479,11 @@
         <f>-0.0000000386</f>
         <v>-3.8600000000000002E-8</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>311</v>
       </c>
@@ -15992,8 +16511,11 @@
         <f>0.00000000286</f>
         <v>2.86E-9</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>312</v>
       </c>
@@ -16022,8 +16544,11 @@
         <f>-0.000000013</f>
         <v>-1.3000000000000001E-8</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>313</v>
       </c>
@@ -16052,8 +16577,11 @@
         <f>-0.0000000988</f>
         <v>-9.8799999999999998E-8</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>38</v>
       </c>
@@ -16082,8 +16610,11 @@
         <f>-0.0000000687</f>
         <v>-6.87E-8</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>314</v>
       </c>
@@ -16112,8 +16643,11 @@
         <f>-0.0000000452</f>
         <v>-4.5200000000000001E-8</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>315</v>
       </c>
@@ -16142,8 +16676,11 @@
         <f>-0.0000000178</f>
         <v>-1.7800000000000001E-8</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>316</v>
       </c>
@@ -16172,8 +16709,11 @@
         <f>-0.0000000976</f>
         <v>-9.76E-8</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>189</v>
       </c>
@@ -16201,8 +16741,11 @@
         <f>0.0000000105</f>
         <v>1.05E-8</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>317</v>
       </c>
@@ -16231,8 +16774,11 @@
         <f>-0.0000000628</f>
         <v>-6.2800000000000006E-8</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>318</v>
       </c>
@@ -16261,8 +16807,11 @@
         <f>0.000000146</f>
         <v>1.4600000000000001E-7</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>319</v>
       </c>
@@ -16287,8 +16836,11 @@
       <c r="H30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>320</v>
       </c>
@@ -16317,8 +16869,11 @@
         <f>-0.000000026</f>
         <v>-2.6000000000000001E-8</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>321</v>
       </c>
@@ -16347,8 +16902,11 @@
         <f>-0.0000000888</f>
         <v>-8.8800000000000001E-8</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>322</v>
       </c>
@@ -16377,8 +16935,11 @@
         <f>-0.0000000888</f>
         <v>-8.8800000000000001E-8</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>323</v>
       </c>
@@ -16406,6 +16967,9 @@
       <c r="H34">
         <f>-0.0000000211</f>
         <v>-2.11E-8</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -16473,7 +17037,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B3">
         <v>1.1378999999999999</v>
@@ -16519,7 +17083,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B5">
         <f>SUM(B2:B4)</f>
@@ -16548,7 +17112,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B6" s="16">
         <f>LN(B5)*244.7889</f>
@@ -16565,7 +17129,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E7" s="16">
         <f>SQRT((4*(D5-15.7)^2+(E5-5.2)^2+(F5-5.8)^2))/3.3</f>

--- a/GCs.xlsx
+++ b/GCs.xlsx
@@ -8,20 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://imperiallondon-my.sharepoint.com/personal/att22_ic_ac_uk/Documents/AAYEAR4/APO1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="911" documentId="8_{1BB338DD-5CE3-4F3B-820B-FA7D83DA8823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B4AA674E-550E-4557-9964-5AFB455E8856}"/>
+  <xr:revisionPtr revIDLastSave="918" documentId="8_{1BB338DD-5CE3-4F3B-820B-FA7D83DA8823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CBA673F2-6348-44A6-959E-CE5362F4865B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{8EFD0542-B832-47AD-A0F7-47D90D0B881B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{8EFD0542-B832-47AD-A0F7-47D90D0B881B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Cleaned" sheetId="2" r:id="rId2"/>
+    <sheet name="Importing Hukkerikar" sheetId="1" r:id="rId1"/>
+    <sheet name="Design Space Draft" sheetId="2" r:id="rId2"/>
     <sheet name="Groups" sheetId="3" r:id="rId3"/>
     <sheet name="SVSH" sheetId="9" r:id="rId4"/>
-    <sheet name="SVSH-test" sheetId="4" r:id="rId5"/>
-    <sheet name="Sheet2" sheetId="6" r:id="rId6"/>
-    <sheet name="maxgroups" sheetId="7" r:id="rId7"/>
-    <sheet name="CpGC" sheetId="5" r:id="rId8"/>
-    <sheet name="Chec king" sheetId="8" r:id="rId9"/>
+    <sheet name="Sahinidis Groups in Hukkerikar" sheetId="6" r:id="rId5"/>
+    <sheet name="CpGC" sheetId="5" r:id="rId6"/>
+    <sheet name="Checking results" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -120,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="338">
   <si>
     <t>Group</t>
   </si>
@@ -3148,6 +3146,9 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3155,9 +3156,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -3591,12 +3589,12 @@
   <dimension ref="A1:H222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -3620,7 +3618,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -3646,7 +3644,7 @@
         <v>2.3800000000000002E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -3672,7 +3670,7 @@
         <v>1.66E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -3698,7 +3696,7 @@
         <v>8.3999999999999995E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -3724,7 +3722,7 @@
         <v>-1.5E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -3750,7 +3748,7 @@
         <v>3.3300000000000003E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -3776,7 +3774,7 @@
         <v>2.4400000000000002E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -3802,7 +3800,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -3828,7 +3826,7 @@
         <v>1.0800000000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -3854,7 +3852,7 @@
         <v>-2.0999999999999999E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -3880,7 +3878,7 @@
         <v>4.3099999999999999E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -3906,7 +3904,7 @@
         <v>3.6499999999999998E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -3932,7 +3930,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -3958,7 +3956,7 @@
         <v>2.63E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -3984,7 +3982,7 @@
         <v>1.5900000000000001E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -4010,7 +4008,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="42" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -4036,7 +4034,7 @@
         <v>4.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="42" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -4062,7 +4060,7 @@
         <v>3.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -4088,7 +4086,7 @@
         <v>7.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -4114,7 +4112,7 @@
         <v>5.1999999999999998E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -4140,7 +4138,7 @@
         <v>3.0200000000000001E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -4166,7 +4164,7 @@
         <v>2.29E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -4192,7 +4190,7 @@
         <v>1.6199999999999999E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -4218,7 +4216,7 @@
         <v>9.4999999999999998E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -4244,7 +4242,7 @@
         <v>4.0899999999999999E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -4270,7 +4268,7 @@
         <v>2.87E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -4296,7 +4294,7 @@
         <v>2.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -4322,7 +4320,7 @@
         <v>3.4700000000000002E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -4348,7 +4346,7 @@
         <v>4.1300000000000003E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -4374,7 +4372,7 @@
         <v>4.1999999999999997E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -4400,7 +4398,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -4426,7 +4424,7 @@
         <v>2.07E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -4452,7 +4450,7 @@
         <v>4.7800000000000002E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -4478,7 +4476,7 @@
         <v>3.4700000000000002E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -4504,7 +4502,7 @@
         <v>2.8299999999999999E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -4530,7 +4528,7 @@
         <v>1.9900000000000001E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -4556,7 +4554,7 @@
         <v>2.81E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -4582,7 +4580,7 @@
         <v>2.0799999999999999E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -4608,7 +4606,7 @@
         <v>1.67E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -4634,7 +4632,7 @@
         <v>1.8700000000000001E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -4660,7 +4658,7 @@
         <v>4.2299999999999997E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -4686,7 +4684,7 @@
         <v>3.6400000000000002E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -4712,7 +4710,7 @@
         <v>2.8400000000000002E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -4738,7 +4736,7 @@
         <v>2.24E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -4764,7 +4762,7 @@
         <v>2.5600000000000001E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -4790,7 +4788,7 @@
         <v>3.1199999999999999E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -4816,7 +4814,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -4842,7 +4840,7 @@
         <v>2.4899999999999999E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -4868,7 +4866,7 @@
         <v>1.9599999999999999E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -4894,7 +4892,7 @@
         <v>2.81E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -4920,7 +4918,7 @@
         <v>2.2800000000000001E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -4946,7 +4944,7 @@
         <v>2.0500000000000001E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -4972,7 +4970,7 @@
         <v>4.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -4998,7 +4996,7 @@
         <v>8.3999999999999995E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -5024,7 +5022,7 @@
         <v>2.6200000000000001E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -5050,7 +5048,7 @@
         <v>2.1399999999999999E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -5076,7 +5074,7 @@
         <v>1.44E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -5102,7 +5100,7 @@
         <v>2.7900000000000001E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -5128,7 +5126,7 @@
         <v>2.46E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -5154,7 +5152,7 @@
         <v>1.8200000000000001E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -5180,7 +5178,7 @@
         <v>2.6499999999999999E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -5206,7 +5204,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
         <v>62</v>
       </c>
@@ -5232,7 +5230,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>63</v>
       </c>
@@ -5258,7 +5256,7 @@
         <v>1.18E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
         <v>64</v>
       </c>
@@ -5284,7 +5282,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
         <v>65</v>
       </c>
@@ -5310,7 +5308,7 @@
         <v>9.5999999999999992E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>66</v>
       </c>
@@ -5336,7 +5334,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
         <v>67</v>
       </c>
@@ -5362,7 +5360,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
         <v>68</v>
       </c>
@@ -5388,7 +5386,7 @@
         <v>3.1399999999999997E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <v>69</v>
       </c>
@@ -5414,7 +5412,7 @@
         <v>2.5399999999999999E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
         <v>70</v>
       </c>
@@ -5440,7 +5438,7 @@
         <v>2.1100000000000001E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
         <v>71</v>
       </c>
@@ -5466,7 +5464,7 @@
         <v>2.9399999999999999E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
         <v>72</v>
       </c>
@@ -5492,7 +5490,7 @@
         <v>1.5800000000000002E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
         <v>73</v>
       </c>
@@ -5518,7 +5516,7 @@
         <v>4.02E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
         <v>74</v>
       </c>
@@ -5544,7 +5542,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
         <v>75</v>
       </c>
@@ -5570,7 +5568,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="3">
         <v>76</v>
       </c>
@@ -5596,7 +5594,7 @@
         <v>3.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="3">
         <v>77</v>
       </c>
@@ -5622,7 +5620,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="3">
         <v>78</v>
       </c>
@@ -5648,7 +5646,7 @@
         <v>2.4899999999999999E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
         <v>79</v>
       </c>
@@ -5674,7 +5672,7 @@
         <v>5.04E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="3">
         <v>80</v>
       </c>
@@ -5700,7 +5698,7 @@
         <v>3.0800000000000001E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
         <v>81</v>
       </c>
@@ -5726,7 +5724,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
         <v>82</v>
       </c>
@@ -5752,7 +5750,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="3">
         <v>83</v>
       </c>
@@ -5778,7 +5776,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="27" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="3">
         <v>84</v>
       </c>
@@ -5804,7 +5802,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="3">
         <v>85</v>
       </c>
@@ -5830,7 +5828,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="3">
         <v>86</v>
       </c>
@@ -5856,7 +5854,7 @@
         <v>1.47E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
         <v>87</v>
       </c>
@@ -5882,7 +5880,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="3">
         <v>88</v>
       </c>
@@ -5908,7 +5906,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="3">
         <v>89</v>
       </c>
@@ -5934,7 +5932,7 @@
         <v>5.33E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="3">
         <v>90</v>
       </c>
@@ -5960,7 +5958,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="3">
         <v>91</v>
       </c>
@@ -5986,7 +5984,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="3">
         <v>92</v>
       </c>
@@ -6012,7 +6010,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="3">
         <v>93</v>
       </c>
@@ -6038,7 +6036,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="3">
         <v>94</v>
       </c>
@@ -6064,7 +6062,7 @@
         <v>3.49E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="3">
         <v>95</v>
       </c>
@@ -6090,7 +6088,7 @@
         <v>3.5299999999999998E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="3">
         <v>96</v>
       </c>
@@ -6116,7 +6114,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="3">
         <v>97</v>
       </c>
@@ -6142,7 +6140,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="3">
         <v>98</v>
       </c>
@@ -6168,7 +6166,7 @@
         <v>3.2599999999999997E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="3">
         <v>99</v>
       </c>
@@ -6194,7 +6192,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="3">
         <v>100</v>
       </c>
@@ -6220,7 +6218,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="3">
         <v>101</v>
       </c>
@@ -6246,7 +6244,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="3">
         <v>102</v>
       </c>
@@ -6272,7 +6270,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="3">
         <v>103</v>
       </c>
@@ -6298,7 +6296,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="3">
         <v>104</v>
       </c>
@@ -6324,7 +6322,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A106" s="3">
         <v>105</v>
       </c>
@@ -6350,7 +6348,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="3">
         <v>106</v>
       </c>
@@ -6376,7 +6374,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A108" s="3">
         <v>107</v>
       </c>
@@ -6402,7 +6400,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="3">
         <v>108</v>
       </c>
@@ -6428,7 +6426,7 @@
         <v>3.1699999999999999E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="3">
         <v>109</v>
       </c>
@@ -6454,7 +6452,7 @@
         <v>2.6700000000000002E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="3">
         <v>110</v>
       </c>
@@ -6480,7 +6478,7 @@
         <v>1.8800000000000001E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="3">
         <v>111</v>
       </c>
@@ -6506,7 +6504,7 @@
         <v>4.48E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="3">
         <v>112</v>
       </c>
@@ -6532,7 +6530,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="3">
         <v>113</v>
       </c>
@@ -6558,7 +6556,7 @@
         <v>6.2100000000000002E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="3">
         <v>114</v>
       </c>
@@ -6584,7 +6582,7 @@
         <v>2.5100000000000001E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="3">
         <v>115</v>
       </c>
@@ -6610,7 +6608,7 @@
         <v>1.9300000000000001E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="3">
         <v>116</v>
       </c>
@@ -6636,7 +6634,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="3">
         <v>117</v>
       </c>
@@ -6662,7 +6660,7 @@
         <v>3.49E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="3">
         <v>118</v>
       </c>
@@ -6688,7 +6686,7 @@
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="3">
         <v>119</v>
       </c>
@@ -6714,7 +6712,7 @@
         <v>4.1200000000000001E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="3">
         <v>120</v>
       </c>
@@ -6740,7 +6738,7 @@
         <v>5.67E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="3">
         <v>121</v>
       </c>
@@ -6766,7 +6764,7 @@
         <v>3.9800000000000002E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="3">
         <v>122</v>
       </c>
@@ -6792,7 +6790,7 @@
         <v>5.4600000000000003E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="3">
         <v>123</v>
       </c>
@@ -6818,7 +6816,7 @@
         <v>2.58E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="3">
         <v>124</v>
       </c>
@@ -6844,7 +6842,7 @@
         <v>1.67E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="3">
         <v>125</v>
       </c>
@@ -6870,7 +6868,7 @@
         <v>3.61E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="3">
         <v>126</v>
       </c>
@@ -6896,7 +6894,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A128" s="3">
         <v>127</v>
       </c>
@@ -6922,7 +6920,7 @@
         <v>2.46E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A129" s="3">
         <v>128</v>
       </c>
@@ -6948,7 +6946,7 @@
         <v>2.1299999999999999E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A130" s="3">
         <v>129</v>
       </c>
@@ -6974,7 +6972,7 @@
         <v>1.23E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A131" s="3">
         <v>130</v>
       </c>
@@ -7000,7 +6998,7 @@
         <v>1.8100000000000002E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="3">
         <v>131</v>
       </c>
@@ -7026,7 +7024,7 @@
         <v>2.2700000000000001E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="3">
         <v>132</v>
       </c>
@@ -7052,7 +7050,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="3">
         <v>133</v>
       </c>
@@ -7078,7 +7076,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="135" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" s="3">
         <v>134</v>
       </c>
@@ -7104,7 +7102,7 @@
         <v>4.1700000000000001E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="3">
         <v>135</v>
       </c>
@@ -7130,7 +7128,7 @@
         <v>3.8100000000000002E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="3">
         <v>136</v>
       </c>
@@ -7156,7 +7154,7 @@
         <v>3.9199999999999999E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="3">
         <v>137</v>
       </c>
@@ -7182,7 +7180,7 @@
         <v>1.04E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="3">
         <v>138</v>
       </c>
@@ -7208,7 +7206,7 @@
         <v>3.4099999999999998E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="3">
         <v>139</v>
       </c>
@@ -7234,7 +7232,7 @@
         <v>2.8899999999999999E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="3">
         <v>140</v>
       </c>
@@ -7260,7 +7258,7 @@
         <v>2.1600000000000001E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="3">
         <v>141</v>
       </c>
@@ -7286,7 +7284,7 @@
         <v>2.69E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A143" s="3">
         <v>142</v>
       </c>
@@ -7312,7 +7310,7 @@
         <v>1.61E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" s="3">
         <v>143</v>
       </c>
@@ -7338,7 +7336,7 @@
         <v>3.56E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" s="3">
         <v>144</v>
       </c>
@@ -7364,7 +7362,7 @@
         <v>2.9399999999999999E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="3">
         <v>145</v>
       </c>
@@ -7390,7 +7388,7 @@
         <v>7.17E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" s="3">
         <v>146</v>
       </c>
@@ -7416,7 +7414,7 @@
         <v>1.3299999999999999E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" s="3">
         <v>147</v>
       </c>
@@ -7442,7 +7440,7 @@
         <v>3.1699999999999999E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="3">
         <v>148</v>
       </c>
@@ -7468,17 +7466,17 @@
         <v>1.43E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A150" s="17">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A150" s="18">
         <v>149</v>
       </c>
-      <c r="B150" s="17" t="e" vm="1">
+      <c r="B150" s="18" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="C150" s="17">
+      <c r="C150" s="18">
         <v>5.0639000000000003</v>
       </c>
-      <c r="D150" s="17">
+      <c r="D150" s="18">
         <v>6.4215</v>
       </c>
       <c r="E150" s="3">
@@ -7490,21 +7488,21 @@
       <c r="G150" s="3">
         <v>-0.33250000000000002</v>
       </c>
-      <c r="H150" s="17">
+      <c r="H150" s="18">
         <v>2.3699999999999999E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A151" s="17"/>
-      <c r="B151" s="17"/>
-      <c r="C151" s="17"/>
-      <c r="D151" s="17"/>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A151" s="18"/>
+      <c r="B151" s="18"/>
+      <c r="C151" s="18"/>
+      <c r="D151" s="18"/>
       <c r="E151" s="3"/>
       <c r="F151" s="3"/>
       <c r="G151" s="3"/>
-      <c r="H151" s="17"/>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H151" s="18"/>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="3">
         <v>150</v>
       </c>
@@ -7530,7 +7528,7 @@
         <v>3.1399999999999997E-2</v>
       </c>
     </row>
-    <row r="153" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A153" s="3">
         <v>151</v>
       </c>
@@ -7556,7 +7554,7 @@
         <v>5.5199999999999999E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" s="3">
         <v>152</v>
       </c>
@@ -7582,7 +7580,7 @@
         <v>3.4099999999999998E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="3">
         <v>153</v>
       </c>
@@ -7608,7 +7606,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="3">
         <v>154</v>
       </c>
@@ -7634,7 +7632,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="157" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A157" s="3">
         <v>155</v>
       </c>
@@ -7660,7 +7658,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="158" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" s="3">
         <v>156</v>
       </c>
@@ -7686,7 +7684,7 @@
         <v>1.9199999999999998E-2</v>
       </c>
     </row>
-    <row r="159" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A159" s="3">
         <v>157</v>
       </c>
@@ -7712,7 +7710,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="160" spans="1:8" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A160" s="3">
         <v>158</v>
       </c>
@@ -7738,7 +7736,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="161" spans="1:8" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A161" s="3">
         <v>159</v>
       </c>
@@ -7764,7 +7762,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="162" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A162" s="3">
         <v>160</v>
       </c>
@@ -7790,7 +7788,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="163" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A163" s="3">
         <v>161</v>
       </c>
@@ -7816,7 +7814,7 @@
         <v>3.1399999999999997E-2</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="3">
         <v>162</v>
       </c>
@@ -7842,7 +7840,7 @@
         <v>6.0900000000000003E-2</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="3">
         <v>163</v>
       </c>
@@ -7868,7 +7866,7 @@
         <v>3.4599999999999999E-2</v>
       </c>
     </row>
-    <row r="166" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A166" s="3">
         <v>164</v>
       </c>
@@ -7894,7 +7892,7 @@
         <v>2.3099999999999999E-2</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" s="3">
         <v>165</v>
       </c>
@@ -7920,7 +7918,7 @@
         <v>2.8500000000000001E-2</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" s="3">
         <v>166</v>
       </c>
@@ -7946,7 +7944,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" s="3">
         <v>167</v>
       </c>
@@ -7972,7 +7970,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="3">
         <v>168</v>
       </c>
@@ -7998,7 +7996,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" s="3">
         <v>169</v>
       </c>
@@ -8024,7 +8022,7 @@
         <v>5.8999999999999999E-3</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" s="3">
         <v>170</v>
       </c>
@@ -8050,7 +8048,7 @@
         <v>0.13930000000000001</v>
       </c>
     </row>
-    <row r="173" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A173" s="3">
         <v>171</v>
       </c>
@@ -8076,7 +8074,7 @@
         <v>2.46E-2</v>
       </c>
     </row>
-    <row r="174" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A174" s="3">
         <v>172</v>
       </c>
@@ -8102,7 +8100,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" s="3">
         <v>173</v>
       </c>
@@ -8128,7 +8126,7 @@
         <v>-3.61E-2</v>
       </c>
     </row>
-    <row r="176" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A176" s="3">
         <v>174</v>
       </c>
@@ -8154,7 +8152,7 @@
         <v>3.1300000000000001E-2</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" s="3">
         <v>175</v>
       </c>
@@ -8180,7 +8178,7 @@
         <v>3.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" s="3">
         <v>176</v>
       </c>
@@ -8206,7 +8204,7 @@
         <v>1.6999999999999999E-3</v>
       </c>
     </row>
-    <row r="179" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A179" s="3">
         <v>177</v>
       </c>
@@ -8232,7 +8230,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" s="3">
         <v>178</v>
       </c>
@@ -8258,7 +8256,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" s="3">
         <v>179</v>
       </c>
@@ -8284,7 +8282,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" s="3">
         <v>180</v>
       </c>
@@ -8310,7 +8308,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" s="3">
         <v>181</v>
       </c>
@@ -8336,7 +8334,7 @@
         <v>1.01E-2</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" s="3">
         <v>182</v>
       </c>
@@ -8362,7 +8360,7 @@
         <v>1.6400000000000001E-2</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" s="3">
         <v>183</v>
       </c>
@@ -8388,7 +8386,7 @@
         <v>6.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" s="3">
         <v>184</v>
       </c>
@@ -8414,7 +8412,7 @@
         <v>1.04E-2</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" s="3">
         <v>185</v>
       </c>
@@ -8440,7 +8438,7 @@
         <v>1.5699999999999999E-2</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" s="3">
         <v>186</v>
       </c>
@@ -8466,7 +8464,7 @@
         <v>1.2800000000000001E-2</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" s="3">
         <v>187</v>
       </c>
@@ -8492,7 +8490,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" s="3">
         <v>188</v>
       </c>
@@ -8518,7 +8516,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" s="3">
         <v>189</v>
       </c>
@@ -8544,7 +8542,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" s="3">
         <v>190</v>
       </c>
@@ -8570,7 +8568,7 @@
         <v>2.8299999999999999E-2</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" s="3">
         <v>191</v>
       </c>
@@ -8596,7 +8594,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" s="3">
         <v>192</v>
       </c>
@@ -8622,7 +8620,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" s="3">
         <v>193</v>
       </c>
@@ -8648,7 +8646,7 @@
         <v>2.2100000000000002E-2</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" s="3">
         <v>194</v>
       </c>
@@ -8674,7 +8672,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" s="3">
         <v>195</v>
       </c>
@@ -8700,7 +8698,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" s="3">
         <v>196</v>
       </c>
@@ -8726,7 +8724,7 @@
         <v>3.6900000000000002E-2</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" s="3">
         <v>197</v>
       </c>
@@ -8752,7 +8750,7 @@
         <v>2.69E-2</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" s="3">
         <v>198</v>
       </c>
@@ -8778,7 +8776,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" s="3">
         <v>199</v>
       </c>
@@ -8804,7 +8802,7 @@
         <v>2.58E-2</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" s="3">
         <v>200</v>
       </c>
@@ -8830,7 +8828,7 @@
         <v>-5.9999999999999995E-4</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" s="3">
         <v>201</v>
       </c>
@@ -8856,7 +8854,7 @@
         <v>8.8999999999999999E-3</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" s="3">
         <v>202</v>
       </c>
@@ -8882,7 +8880,7 @@
         <v>3.8699999999999998E-2</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" s="3">
         <v>203</v>
       </c>
@@ -8908,7 +8906,7 @@
         <v>5.3499999999999999E-2</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" s="3">
         <v>204</v>
       </c>
@@ -8934,7 +8932,7 @@
         <v>1.9699999999999999E-2</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" s="3">
         <v>205</v>
       </c>
@@ -8960,7 +8958,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" s="3">
         <v>206</v>
       </c>
@@ -8986,7 +8984,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" s="3">
         <v>207</v>
       </c>
@@ -9012,7 +9010,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210" s="3">
         <v>208</v>
       </c>
@@ -9039,7 +9037,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" s="3">
         <v>209</v>
       </c>
@@ -9065,7 +9063,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" s="3">
         <v>210</v>
       </c>
@@ -9091,7 +9089,7 @@
         <v>1.9400000000000001E-2</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" s="3">
         <v>211</v>
       </c>
@@ -9117,7 +9115,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214" s="3">
         <v>212</v>
       </c>
@@ -9143,7 +9141,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" s="3">
         <v>213</v>
       </c>
@@ -9169,7 +9167,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216" s="3">
         <v>214</v>
       </c>
@@ -9195,7 +9193,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" s="3">
         <v>215</v>
       </c>
@@ -9221,7 +9219,7 @@
         <v>3.5200000000000002E-2</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" s="3">
         <v>216</v>
       </c>
@@ -9247,7 +9245,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" s="3">
         <v>217</v>
       </c>
@@ -9273,7 +9271,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220" s="3">
         <v>218</v>
       </c>
@@ -9299,7 +9297,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221" s="3">
         <v>219</v>
       </c>
@@ -9325,7 +9323,7 @@
         <v>2.9399999999999999E-2</v>
       </c>
     </row>
-    <row r="222" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A222" s="4">
         <v>220</v>
       </c>
@@ -9366,19 +9364,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59117FAC-2A06-4FBA-9756-14734AAF0B6B}">
-  <dimension ref="A1:O98"/>
+  <dimension ref="A1:N98"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="28.42578125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="28.44140625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>227</v>
       </c>
@@ -9412,8 +9410,11 @@
       <c r="K1" s="5" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -9447,8 +9448,11 @@
       <c r="K2" s="12">
         <v>2.3800000000000002E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <v>2</v>
       </c>
@@ -9482,8 +9486,11 @@
       <c r="K3" s="12">
         <v>1.66E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
         <v>3</v>
       </c>
@@ -9517,8 +9524,11 @@
       <c r="K4" s="12">
         <v>8.3999999999999995E-3</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
         <v>4</v>
       </c>
@@ -9553,7 +9563,7 @@
         <v>-1.5E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -9588,7 +9598,7 @@
         <v>3.3300000000000003E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -9623,7 +9633,7 @@
         <v>2.4400000000000002E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -9658,7 +9668,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -9693,7 +9703,7 @@
         <v>1.0800000000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -9728,7 +9738,7 @@
         <v>-2.0999999999999999E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -9763,7 +9773,7 @@
         <v>4.3099999999999999E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -9798,7 +9808,7 @@
         <v>3.6499999999999998E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <v>15</v>
       </c>
@@ -9833,7 +9843,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
         <v>16</v>
       </c>
@@ -9866,7 +9876,7 @@
         <v>4.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
         <v>17</v>
       </c>
@@ -9899,7 +9909,7 @@
         <v>3.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="10">
         <v>18</v>
       </c>
@@ -9930,7 +9940,7 @@
         <v>7.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="12">
         <v>19</v>
       </c>
@@ -9965,7 +9975,7 @@
         <v>5.1999999999999998E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="12">
         <v>20</v>
       </c>
@@ -10000,7 +10010,7 @@
         <v>3.0200000000000001E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="14">
         <v>21</v>
       </c>
@@ -10035,7 +10045,7 @@
         <v>2.29E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>22</v>
       </c>
@@ -10069,11 +10079,8 @@
       <c r="K20">
         <v>1.6199999999999999E-2</v>
       </c>
-      <c r="O20" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>23</v>
       </c>
@@ -10107,11 +10114,8 @@
       <c r="K21">
         <v>9.4999999999999998E-3</v>
       </c>
-      <c r="O21" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>24</v>
       </c>
@@ -10145,11 +10149,8 @@
       <c r="K22">
         <v>4.0899999999999999E-2</v>
       </c>
-      <c r="O22" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>25</v>
       </c>
@@ -10183,11 +10184,8 @@
       <c r="K23">
         <v>2.87E-2</v>
       </c>
-      <c r="O23" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="12">
         <v>29</v>
       </c>
@@ -10222,7 +10220,7 @@
         <v>4.1999999999999997E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="14">
         <v>30</v>
       </c>
@@ -10257,7 +10255,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="14">
         <v>31</v>
       </c>
@@ -10292,7 +10290,7 @@
         <v>2.07E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="14">
         <v>32</v>
       </c>
@@ -10327,7 +10325,7 @@
         <v>4.7800000000000002E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>33</v>
       </c>
@@ -10362,7 +10360,7 @@
         <v>3.4700000000000002E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="11">
         <v>37</v>
       </c>
@@ -10397,7 +10395,7 @@
         <v>2.0799999999999999E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>38</v>
       </c>
@@ -10432,7 +10430,7 @@
         <v>1.67E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>39</v>
       </c>
@@ -10467,7 +10465,7 @@
         <v>1.8700000000000001E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>40</v>
       </c>
@@ -10502,7 +10500,7 @@
         <v>4.2299999999999997E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>41</v>
       </c>
@@ -10537,7 +10535,7 @@
         <v>3.6400000000000002E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>42</v>
       </c>
@@ -10572,7 +10570,7 @@
         <v>2.8400000000000002E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>43</v>
       </c>
@@ -10607,7 +10605,7 @@
         <v>2.24E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>44</v>
       </c>
@@ -10636,7 +10634,7 @@
         <v>2.5600000000000001E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>45</v>
       </c>
@@ -10665,7 +10663,7 @@
         <v>3.1199999999999999E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>47</v>
       </c>
@@ -10694,7 +10692,7 @@
         <v>2.4899999999999999E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>48</v>
       </c>
@@ -10723,7 +10721,7 @@
         <v>1.9599999999999999E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="12">
         <v>49</v>
       </c>
@@ -10754,7 +10752,7 @@
         <v>2.81E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="12">
         <v>50</v>
       </c>
@@ -10785,7 +10783,7 @@
         <v>2.2800000000000001E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>51</v>
       </c>
@@ -10814,7 +10812,7 @@
         <v>2.0500000000000001E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>53</v>
       </c>
@@ -10843,7 +10841,7 @@
         <v>8.3999999999999995E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="12">
         <v>54</v>
       </c>
@@ -10874,7 +10872,7 @@
         <v>2.6200000000000001E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="12">
         <v>55</v>
       </c>
@@ -10905,7 +10903,7 @@
         <v>2.1399999999999999E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="12">
         <v>57</v>
       </c>
@@ -10936,7 +10934,7 @@
         <v>2.7900000000000001E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="12">
         <v>58</v>
       </c>
@@ -10967,7 +10965,7 @@
         <v>2.46E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="12">
         <v>59</v>
       </c>
@@ -10998,7 +10996,7 @@
         <v>1.8200000000000001E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="12">
         <v>60</v>
       </c>
@@ -11029,7 +11027,7 @@
         <v>2.6499999999999999E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="12">
         <v>61</v>
       </c>
@@ -11060,7 +11058,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="14">
         <v>62</v>
       </c>
@@ -11091,7 +11089,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="14">
         <v>63</v>
       </c>
@@ -11122,7 +11120,7 @@
         <v>1.18E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="12">
         <v>65</v>
       </c>
@@ -11153,7 +11151,7 @@
         <v>9.5999999999999992E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="11">
         <v>76</v>
       </c>
@@ -11184,7 +11182,7 @@
         <v>3.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>77</v>
       </c>
@@ -11213,7 +11211,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>78</v>
       </c>
@@ -11242,7 +11240,7 @@
         <v>2.4899999999999999E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>79</v>
       </c>
@@ -11271,7 +11269,7 @@
         <v>5.04E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>80</v>
       </c>
@@ -11300,7 +11298,7 @@
         <v>3.0800000000000001E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>81</v>
       </c>
@@ -11329,7 +11327,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>83</v>
       </c>
@@ -11358,7 +11356,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>86</v>
       </c>
@@ -11387,7 +11385,7 @@
         <v>1.47E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>87</v>
       </c>
@@ -11416,7 +11414,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>89</v>
       </c>
@@ -11445,7 +11443,7 @@
         <v>5.33E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>94</v>
       </c>
@@ -11474,7 +11472,7 @@
         <v>3.49E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>98</v>
       </c>
@@ -11503,7 +11501,7 @@
         <v>3.2599999999999997E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" s="14">
         <v>126</v>
       </c>
@@ -11534,7 +11532,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" s="14">
         <v>128</v>
       </c>
@@ -11565,7 +11563,7 @@
         <v>2.1299999999999999E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" s="14">
         <v>131</v>
       </c>
@@ -11599,7 +11597,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" s="12">
         <v>134</v>
       </c>
@@ -11633,7 +11631,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" s="11">
         <v>135</v>
       </c>
@@ -11664,7 +11662,7 @@
         <v>3.8100000000000002E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" s="11">
         <v>136</v>
       </c>
@@ -11695,7 +11693,7 @@
         <v>3.9199999999999999E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>137</v>
       </c>
@@ -11724,7 +11722,7 @@
         <v>1.04E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" s="10">
         <v>143</v>
       </c>
@@ -11755,7 +11753,7 @@
         <v>3.56E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" s="10">
         <v>144</v>
       </c>
@@ -11786,7 +11784,7 @@
         <v>2.9399999999999999E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" s="10">
         <v>147</v>
       </c>
@@ -11817,7 +11815,7 @@
         <v>3.1699999999999999E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" s="14">
         <v>148</v>
       </c>
@@ -11848,7 +11846,7 @@
         <v>1.43E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" s="14">
         <v>149</v>
       </c>
@@ -11879,7 +11877,7 @@
         <v>2.3699999999999999E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" s="10">
         <v>164</v>
       </c>
@@ -11910,7 +11908,7 @@
         <v>2.3099999999999999E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" s="10">
         <v>165</v>
       </c>
@@ -11941,7 +11939,7 @@
         <v>2.8500000000000001E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" s="10">
         <v>166</v>
       </c>
@@ -11972,7 +11970,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="12">
         <v>168</v>
       </c>
@@ -12003,7 +12001,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="12">
         <v>169</v>
       </c>
@@ -12034,7 +12032,7 @@
         <v>5.8999999999999999E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="12">
         <v>170</v>
       </c>
@@ -12065,7 +12063,7 @@
         <v>0.13930000000000001</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>171</v>
       </c>
@@ -12094,7 +12092,7 @@
         <v>2.46E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>172</v>
       </c>
@@ -12123,7 +12121,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>173</v>
       </c>
@@ -12152,7 +12150,7 @@
         <v>-3.61E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>174</v>
       </c>
@@ -12181,7 +12179,7 @@
         <v>3.1300000000000001E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="12">
         <v>175</v>
       </c>
@@ -12212,7 +12210,7 @@
         <v>3.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="12">
         <v>176</v>
       </c>
@@ -12243,7 +12241,7 @@
         <v>1.6999999999999999E-3</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>177</v>
       </c>
@@ -12272,7 +12270,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="12">
         <v>179</v>
       </c>
@@ -12303,7 +12301,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="12">
         <v>180</v>
       </c>
@@ -12334,7 +12332,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>181</v>
       </c>
@@ -12363,7 +12361,7 @@
         <v>1.01E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="12">
         <v>184</v>
       </c>
@@ -12394,7 +12392,7 @@
         <v>1.04E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>185</v>
       </c>
@@ -12423,7 +12421,7 @@
         <v>1.5699999999999999E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>186</v>
       </c>
@@ -12452,7 +12450,7 @@
         <v>1.2800000000000001E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>199</v>
       </c>
@@ -12481,7 +12479,7 @@
         <v>2.58E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>200</v>
       </c>
@@ -12520,16 +12518,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{297960EB-DBC8-44A4-9F73-359D156C6248}">
   <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView zoomScale="71" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="71" workbookViewId="0">
       <selection activeCell="P35" sqref="P35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="47.140625" customWidth="1"/>
+    <col min="4" max="4" width="47.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>227</v>
       </c>
@@ -12570,7 +12568,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -12611,7 +12609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -12652,7 +12650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -12693,7 +12691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -12734,7 +12732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>15</v>
       </c>
@@ -12775,7 +12773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>19</v>
       </c>
@@ -12816,7 +12814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>20</v>
       </c>
@@ -12857,7 +12855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>29</v>
       </c>
@@ -12898,7 +12896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>49</v>
       </c>
@@ -12939,7 +12937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>50</v>
       </c>
@@ -12980,7 +12978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>54</v>
       </c>
@@ -13021,7 +13019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>55</v>
       </c>
@@ -13062,7 +13060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>57</v>
       </c>
@@ -13103,7 +13101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>58</v>
       </c>
@@ -13144,7 +13142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>59</v>
       </c>
@@ -13185,7 +13183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>60</v>
       </c>
@@ -13226,7 +13224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>61</v>
       </c>
@@ -13267,7 +13265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>65</v>
       </c>
@@ -13308,7 +13306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>134</v>
       </c>
@@ -13349,7 +13347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>168</v>
       </c>
@@ -13390,7 +13388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>169</v>
       </c>
@@ -13431,7 +13429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>175</v>
       </c>
@@ -13472,7 +13470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>176</v>
       </c>
@@ -13513,7 +13511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>179</v>
       </c>
@@ -13554,7 +13552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>180</v>
       </c>
@@ -13595,7 +13593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>184</v>
       </c>
@@ -13636,7 +13634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="14">
         <v>21</v>
       </c>
@@ -13677,7 +13675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="14">
         <v>30</v>
       </c>
@@ -13718,7 +13716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="14">
         <v>31</v>
       </c>
@@ -13759,7 +13757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="14">
         <v>32</v>
       </c>
@@ -13800,7 +13798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="14">
         <v>62</v>
       </c>
@@ -13841,7 +13839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="14">
         <v>63</v>
       </c>
@@ -13882,7 +13880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="14">
         <v>126</v>
       </c>
@@ -13923,7 +13921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="14">
         <v>128</v>
       </c>
@@ -13964,7 +13962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="14">
         <v>148</v>
       </c>
@@ -14005,7 +14003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="14">
         <v>149</v>
       </c>
@@ -14046,7 +14044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="14">
         <v>170</v>
       </c>
@@ -14102,12 +14100,12 @@
       <selection pane="bottomLeft" activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" width="19.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>291</v>
       </c>
@@ -14211,7 +14209,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>237</v>
       </c>
@@ -14219,7 +14217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>239</v>
       </c>
@@ -14227,7 +14225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -14235,7 +14233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -14243,7 +14241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -14251,7 +14249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -14259,7 +14257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>247</v>
       </c>
@@ -14270,7 +14268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -14278,7 +14276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>257</v>
       </c>
@@ -14289,7 +14287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>258</v>
       </c>
@@ -14300,7 +14298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>259</v>
       </c>
@@ -14311,7 +14309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>260</v>
       </c>
@@ -14322,7 +14320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>261</v>
       </c>
@@ -14333,7 +14331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>262</v>
       </c>
@@ -14344,7 +14342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>66</v>
       </c>
@@ -14355,7 +14353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>263</v>
       </c>
@@ -14366,7 +14364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>264</v>
       </c>
@@ -14377,7 +14375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>266</v>
       </c>
@@ -14385,7 +14383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>278</v>
       </c>
@@ -14399,7 +14397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>288</v>
       </c>
@@ -14407,7 +14405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>175</v>
       </c>
@@ -14415,7 +14413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>181</v>
       </c>
@@ -14423,7 +14421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>182</v>
       </c>
@@ -14431,7 +14429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>185</v>
       </c>
@@ -14439,7 +14437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>186</v>
       </c>
@@ -14447,7 +14445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>190</v>
       </c>
@@ -14455,7 +14453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A28" s="14" t="s">
         <v>248</v>
       </c>
@@ -14466,7 +14464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A29" s="14" t="s">
         <v>37</v>
       </c>
@@ -14477,7 +14475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A30" s="14" t="s">
         <v>38</v>
       </c>
@@ -14485,7 +14483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A31" s="14" t="s">
         <v>39</v>
       </c>
@@ -14496,7 +14494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A32" s="14" t="s">
         <v>265</v>
       </c>
@@ -14507,7 +14505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A33" s="14" t="s">
         <v>70</v>
       </c>
@@ -14518,7 +14516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A34" s="14" t="s">
         <v>133</v>
       </c>
@@ -14529,7 +14527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A35" s="14" t="s">
         <v>135</v>
       </c>
@@ -14537,7 +14535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A36" s="14" t="s">
         <v>155</v>
       </c>
@@ -14548,7 +14546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A37" s="14" t="s">
         <v>284</v>
       </c>
@@ -14559,7 +14557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A38" s="14" t="s">
         <v>176</v>
       </c>
@@ -14570,459 +14568,6 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A4676F8-DF3E-4054-9E4F-287C2CE55955}">
-  <dimension ref="A1:AG37"/>
-  <sheetViews>
-    <sheetView zoomScale="52" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R42" sqref="R42"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>294</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>295</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>296</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>297</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>298</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>299</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>300</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>301</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>302</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>303</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>304</v>
-      </c>
-      <c r="M1" s="13" t="s">
-        <v>305</v>
-      </c>
-      <c r="N1" s="13" t="s">
-        <v>306</v>
-      </c>
-      <c r="O1" s="13" t="s">
-        <v>307</v>
-      </c>
-      <c r="P1" s="13" t="s">
-        <v>308</v>
-      </c>
-      <c r="Q1" s="13" t="s">
-        <v>309</v>
-      </c>
-      <c r="R1" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="S1" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="T1" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="U1" s="13" t="s">
-        <v>313</v>
-      </c>
-      <c r="V1" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="W1" s="13" t="s">
-        <v>314</v>
-      </c>
-      <c r="X1" s="13" t="s">
-        <v>315</v>
-      </c>
-      <c r="Y1" s="13" t="s">
-        <v>316</v>
-      </c>
-      <c r="Z1" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="AA1" s="13" t="s">
-        <v>317</v>
-      </c>
-      <c r="AB1" s="13" t="s">
-        <v>318</v>
-      </c>
-      <c r="AC1" s="13" t="s">
-        <v>319</v>
-      </c>
-      <c r="AD1" s="13" t="s">
-        <v>320</v>
-      </c>
-      <c r="AE1" s="13" t="s">
-        <v>321</v>
-      </c>
-      <c r="AF1" s="13" t="s">
-        <v>322</v>
-      </c>
-      <c r="AG1" s="13" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>239</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>247</v>
-      </c>
-      <c r="M7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>36</v>
-      </c>
-      <c r="O8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>257</v>
-      </c>
-      <c r="Q9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>258</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="Q10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>259</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="Y11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>260</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="Y12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>261</v>
-      </c>
-      <c r="Z13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>262</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="Z14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="Z15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>263</v>
-      </c>
-      <c r="AB16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>264</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="AB17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>266</v>
-      </c>
-      <c r="Y18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>278</v>
-      </c>
-      <c r="B19">
-        <v>2</v>
-      </c>
-      <c r="O19">
-        <v>1</v>
-      </c>
-      <c r="Q19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>288</v>
-      </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>175</v>
-      </c>
-      <c r="J21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>181</v>
-      </c>
-      <c r="AA22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>182</v>
-      </c>
-      <c r="AD23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>185</v>
-      </c>
-      <c r="R24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>186</v>
-      </c>
-      <c r="T25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="s">
-        <v>248</v>
-      </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A28" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="M28">
-        <v>1</v>
-      </c>
-      <c r="P28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A29" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="V29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A30" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="M30">
-        <v>1</v>
-      </c>
-      <c r="V30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A31" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="M31">
-        <v>1</v>
-      </c>
-      <c r="Y31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A32" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="M32">
-        <v>1</v>
-      </c>
-      <c r="Z32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A33" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="M33">
-        <v>1</v>
-      </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A34" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A35" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="X35">
-        <v>1</v>
-      </c>
-      <c r="AG35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A36" s="14" t="s">
-        <v>284</v>
-      </c>
-      <c r="X36">
-        <v>2</v>
-      </c>
-      <c r="AG36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A37" s="14" t="s">
-        <v>176</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7930263-39C9-4952-A2A7-C5761E90B351}">
   <dimension ref="A1:D38"/>
   <sheetViews>
@@ -15030,47 +14575,47 @@
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
         <v>292</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>305</v>
       </c>
@@ -15078,12 +14623,12 @@
         <v>293</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>293</v>
       </c>
@@ -15091,7 +14636,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>294</v>
       </c>
@@ -15099,7 +14644,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>294</v>
       </c>
@@ -15107,7 +14652,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>295</v>
       </c>
@@ -15115,7 +14660,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>293</v>
       </c>
@@ -15123,7 +14668,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>294</v>
       </c>
@@ -15131,7 +14676,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>295</v>
       </c>
@@ -15139,7 +14684,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>293</v>
       </c>
@@ -15147,7 +14692,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>294</v>
       </c>
@@ -15155,12 +14700,12 @@
         <v>318</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>190</v>
       </c>
@@ -15174,42 +14719,42 @@
         <v>307</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>305</v>
       </c>
@@ -15217,7 +14762,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>305</v>
       </c>
@@ -15225,12 +14770,12 @@
         <v>308</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>305</v>
       </c>
@@ -15238,7 +14783,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>305</v>
       </c>
@@ -15246,7 +14791,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>305</v>
       </c>
@@ -15254,7 +14799,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>305</v>
       </c>
@@ -15262,12 +14807,12 @@
         <v>306</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>323</v>
       </c>
@@ -15275,7 +14820,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>323</v>
       </c>
@@ -15286,7 +14831,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>303</v>
       </c>
@@ -15299,546 +14844,1130 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7EBF146-937E-4601-B58E-56AADBC56C60}">
-  <dimension ref="A1:D38"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23F6FF9F-8B9B-488C-B485-3ABBC4416DFF}">
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1048576"/>
+    <sheetView zoomScale="75" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="2" max="3" width="9.109375" customWidth="1"/>
+    <col min="4" max="4" width="9" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>335</v>
-      </c>
-      <c r="C1" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>329</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>237</v>
+        <v>293</v>
       </c>
       <c r="B2">
-        <v>8</v>
+        <v>1.41E-2</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>-1.1999999999999999E-3</v>
       </c>
       <c r="D2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>23.58</v>
+      </c>
+      <c r="E2">
+        <f>19.5</f>
+        <v>19.5</v>
+      </c>
+      <c r="F2">
+        <f>-0.00808</f>
+        <v>-8.0800000000000004E-3</v>
+      </c>
+      <c r="G2">
+        <f>0.000153</f>
+        <v>1.5300000000000001E-4</v>
+      </c>
+      <c r="H2" s="15">
+        <f>0.0000000967</f>
+        <v>9.6699999999999999E-8</v>
+      </c>
+      <c r="I2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>239</v>
+        <v>294</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>1.89E-2</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>22.88</v>
+      </c>
+      <c r="E3">
+        <f>-0.909</f>
+        <v>-0.90900000000000003</v>
+      </c>
+      <c r="F3">
+        <f>0.095</f>
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="G3">
+        <f>-0.0000544</f>
+        <v>-5.4400000000000001E-5</v>
+      </c>
+      <c r="H3">
+        <f>0.0000000119</f>
+        <v>1.1900000000000001E-8</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>295</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>1.6400000000000001E-2</v>
       </c>
       <c r="C4">
+        <v>2E-3</v>
+      </c>
+      <c r="D4">
+        <v>21.74</v>
+      </c>
+      <c r="E4">
+        <f>-23</f>
+        <v>-23</v>
+      </c>
+      <c r="F4">
+        <f>0.204</f>
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="G4">
+        <f>-0.000265</f>
+        <v>-2.6499999999999999E-4</v>
+      </c>
+      <c r="H4">
+        <f>0.00000012</f>
+        <v>1.1999999999999999E-7</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>296</v>
+      </c>
+      <c r="B5">
+        <v>6.7000000000000002E-3</v>
+      </c>
+      <c r="C5">
+        <v>4.3E-3</v>
+      </c>
+      <c r="D5">
+        <v>18.25</v>
+      </c>
+      <c r="E5">
+        <f>-66.2</f>
+        <v>-66.2</v>
+      </c>
+      <c r="F5">
+        <f>0.427</f>
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="G5">
+        <f>-0.000641</f>
+        <v>-6.4099999999999997E-4</v>
+      </c>
+      <c r="H5">
+        <f>0.000000301</f>
+        <v>3.0100000000000001E-7</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>297</v>
+      </c>
+      <c r="B6">
+        <v>1.1299999999999999E-2</v>
+      </c>
+      <c r="C6">
+        <v>-2.8E-3</v>
+      </c>
+      <c r="D6">
+        <v>18.18</v>
+      </c>
+      <c r="E6">
+        <f>23.6</f>
+        <v>23.6</v>
+      </c>
+      <c r="F6">
+        <f>-0.0381</f>
+        <v>-3.8100000000000002E-2</v>
+      </c>
+      <c r="G6">
+        <f>0.000172</f>
+        <v>1.7200000000000001E-4</v>
+      </c>
+      <c r="H6">
+        <f>-0.000000103</f>
+        <v>-1.03E-7</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>298</v>
+      </c>
+      <c r="B7">
+        <v>1.29E-2</v>
+      </c>
+      <c r="C7">
+        <v>-5.9999999999999995E-4</v>
+      </c>
+      <c r="D7">
+        <v>24.96</v>
+      </c>
+      <c r="E7">
+        <v>-8</v>
+      </c>
+      <c r="F7">
+        <f>0.105</f>
+        <v>0.105</v>
+      </c>
+      <c r="G7">
+        <f>-0.0000963</f>
+        <v>-9.6299999999999996E-5</v>
+      </c>
+      <c r="H7">
+        <f>0.0000000356</f>
+        <v>3.5600000000000001E-8</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>299</v>
+      </c>
+      <c r="B8">
+        <v>1.17E-2</v>
+      </c>
+      <c r="C8">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="D8">
+        <v>24.14</v>
+      </c>
+      <c r="E8">
+        <f>-28.1</f>
+        <v>-28.1</v>
+      </c>
+      <c r="F8">
+        <f>0.208</f>
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="G8">
+        <f>-0.000306</f>
+        <v>-3.0600000000000001E-4</v>
+      </c>
+      <c r="H8">
+        <f>0.000000146</f>
+        <v>1.4600000000000001E-7</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>300</v>
+      </c>
+      <c r="B9">
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="C9">
+        <v>2.8E-3</v>
+      </c>
+      <c r="D9">
+        <v>26.15</v>
+      </c>
+      <c r="E9">
+        <f>27.4</f>
+        <v>27.4</v>
+      </c>
+      <c r="F9">
+        <f>-0.0557</f>
+        <v>-5.57E-2</v>
+      </c>
+      <c r="G9">
+        <f>0.000101</f>
+        <v>1.01E-4</v>
+      </c>
+      <c r="H9">
+        <f>-0.0000000502</f>
+        <v>-5.02E-8</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>301</v>
+      </c>
+      <c r="B10">
+        <v>0.01</v>
+      </c>
+      <c r="C10">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="D10">
+        <v>27.15</v>
+      </c>
+      <c r="E10">
+        <v>-6.03</v>
+      </c>
+      <c r="F10">
+        <f>0.0854</f>
+        <v>8.5400000000000004E-2</v>
+      </c>
+      <c r="G10">
+        <f>-0.000008</f>
+        <v>-7.9999999999999996E-6</v>
+      </c>
+      <c r="H10">
+        <f>-0.000000018</f>
+        <v>-1.7999999999999999E-8</v>
+      </c>
+      <c r="I10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>302</v>
+      </c>
+      <c r="B11">
+        <v>1.2200000000000001E-2</v>
+      </c>
+      <c r="C11">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="D11">
+        <v>21.78</v>
+      </c>
+      <c r="E11">
+        <f>-20.5</f>
+        <v>-20.5</v>
+      </c>
+      <c r="F11">
+        <f>0.162</f>
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="G11">
+        <f>-0.00016</f>
+        <v>-1.6000000000000001E-4</v>
+      </c>
+      <c r="H11">
+        <f>0.0000000624</f>
+        <v>6.2400000000000003E-8</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>303</v>
+      </c>
+      <c r="B12">
+        <v>4.1999999999999997E-3</v>
+      </c>
+      <c r="C12">
+        <v>6.1000000000000004E-3</v>
+      </c>
+      <c r="D12">
+        <v>21.32</v>
+      </c>
+      <c r="E12">
+        <f>-90.9</f>
+        <v>-90.9</v>
+      </c>
+      <c r="F12">
+        <f>0.557</f>
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="G12">
+        <f>-0.0009</f>
+        <v>-8.9999999999999998E-4</v>
+      </c>
+      <c r="H12">
+        <f>0.000000469</f>
+        <v>4.6899999999999998E-7</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>304</v>
+      </c>
+      <c r="B13">
+        <v>8.2000000000000007E-3</v>
+      </c>
+      <c r="C13">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="D13">
+        <v>26.73</v>
+      </c>
+      <c r="E13">
+        <f>-2.14</f>
+        <v>-2.14</v>
+      </c>
+      <c r="F13">
+        <f>0.0574</f>
+        <v>5.74E-2</v>
+      </c>
+      <c r="G13">
+        <f>-0.00000164</f>
+        <v>-1.64E-6</v>
+      </c>
+      <c r="H13">
+        <f>-0.0000000159</f>
+        <v>-1.59E-8</v>
+      </c>
+      <c r="I13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>305</v>
+      </c>
+      <c r="B14">
+        <v>1.43E-2</v>
+      </c>
+      <c r="C14">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="D14">
+        <v>31.01</v>
+      </c>
+      <c r="E14">
+        <f>-8.25</f>
+        <v>-8.25</v>
+      </c>
+      <c r="F14">
+        <f>0.101</f>
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="G14">
+        <f>-0.000142</f>
+        <v>-1.4200000000000001E-4</v>
+      </c>
+      <c r="H14">
+        <f>0.0000000678</f>
+        <v>6.7799999999999998E-8</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>306</v>
+      </c>
+      <c r="B15">
+        <v>1.3299999999999999E-2</v>
+      </c>
+      <c r="C15">
+        <v>5.7000000000000002E-3</v>
+      </c>
+      <c r="D15">
+        <v>66.86</v>
+      </c>
+      <c r="E15">
+        <v>28.6</v>
+      </c>
+      <c r="F15">
+        <f>-0.0649</f>
+        <v>-6.4899999999999999E-2</v>
+      </c>
+      <c r="G15">
+        <f>0.000136</f>
+        <v>1.36E-4</v>
+      </c>
+      <c r="H15">
+        <f>-0.0000000745</f>
+        <v>-7.4499999999999999E-8</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>307</v>
+      </c>
+      <c r="B16">
+        <v>7.4099999999999999E-2</v>
+      </c>
+      <c r="C16">
+        <v>1.12E-2</v>
+      </c>
+      <c r="D16">
+        <v>92.88</v>
+      </c>
+      <c r="E16">
+        <f>25.7</f>
+        <v>25.7</v>
+      </c>
+      <c r="F16">
+        <f>-0.0691</f>
+        <v>-6.9099999999999995E-2</v>
+      </c>
+      <c r="G16">
+        <f>0.000177</f>
+        <v>1.7699999999999999E-4</v>
+      </c>
+      <c r="H16">
+        <f>-0.0000000988</f>
+        <v>-9.8799999999999998E-8</v>
+      </c>
+      <c r="I16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>308</v>
+      </c>
+      <c r="B17">
+        <v>2.4E-2</v>
+      </c>
+      <c r="C17">
+        <v>1.84E-2</v>
+      </c>
+      <c r="D17">
+        <v>76.34</v>
+      </c>
+      <c r="E17">
+        <f>-2.81</f>
+        <v>-2.81</v>
+      </c>
+      <c r="F17">
+        <f>0.111</f>
+        <v>0.111</v>
+      </c>
+      <c r="G17">
+        <f>-0.000116</f>
+        <v>-1.16E-4</v>
+      </c>
+      <c r="H17">
+        <f>0.0000000494</f>
+        <v>4.9399999999999999E-8</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>309</v>
+      </c>
+      <c r="B18">
+        <v>1.6799999999999999E-2</v>
+      </c>
+      <c r="C18">
+        <v>1.5E-3</v>
+      </c>
+      <c r="D18">
+        <v>22.42</v>
+      </c>
+      <c r="E18">
+        <f>25.5</f>
+        <v>25.5</v>
+      </c>
+      <c r="F18">
+        <f>-0.0632</f>
+        <v>-6.3200000000000006E-2</v>
+      </c>
+      <c r="G18">
+        <f>0.000111</f>
+        <v>1.11E-4</v>
+      </c>
+      <c r="H18">
+        <f>-0.0000000548</f>
+        <v>-5.4800000000000001E-8</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>310</v>
+      </c>
+      <c r="B19">
+        <v>9.7999999999999997E-3</v>
+      </c>
+      <c r="C19">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="D19">
+        <v>31.22</v>
+      </c>
+      <c r="E19">
+        <f>12.2</f>
+        <v>12.2</v>
+      </c>
+      <c r="F19">
+        <f>-0.0126</f>
+        <v>-1.26E-2</v>
+      </c>
+      <c r="G19">
+        <f>0.0000603</f>
+        <v>6.0300000000000002E-5</v>
+      </c>
+      <c r="H19">
+        <f>-0.0000000386</f>
+        <v>-3.8600000000000002E-8</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>311</v>
+      </c>
+      <c r="B20">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="C20">
+        <v>3.0999999999999999E-3</v>
+      </c>
+      <c r="D20">
+        <v>76.75</v>
+      </c>
+      <c r="E20">
+        <v>6.45</v>
+      </c>
+      <c r="F20" s="15">
+        <f>0.067</f>
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="G20">
+        <f>-0.0000357</f>
+        <v>-3.57E-5</v>
+      </c>
+      <c r="H20">
+        <f>0.00000000286</f>
+        <v>2.86E-9</v>
+      </c>
+      <c r="I20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>312</v>
+      </c>
+      <c r="B21">
+        <v>2.8400000000000002E-2</v>
+      </c>
+      <c r="C21">
+        <v>2.8E-3</v>
+      </c>
+      <c r="D21">
+        <v>94.97</v>
+      </c>
+      <c r="E21">
+        <f>30.4</f>
+        <v>30.4</v>
+      </c>
+      <c r="F21">
+        <f>-0.0829</f>
+        <v>-8.2900000000000001E-2</v>
+      </c>
+      <c r="G21">
+        <f>0.000236</f>
+        <v>2.3599999999999999E-4</v>
+      </c>
+      <c r="H21">
+        <f>-0.000000013</f>
+        <v>-1.3000000000000001E-8</v>
+      </c>
+      <c r="I21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>313</v>
+      </c>
+      <c r="B22">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="C22">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D22">
+        <v>72.239999999999995</v>
+      </c>
+      <c r="E22">
+        <f>30.9</f>
+        <v>30.9</v>
+      </c>
+      <c r="F22">
+        <f>-0.0336</f>
+        <v>-3.3599999999999998E-2</v>
+      </c>
+      <c r="G22">
+        <f>0.00016</f>
+        <v>1.6000000000000001E-4</v>
+      </c>
+      <c r="H22">
+        <f>-0.0000000988</f>
+        <v>-9.8799999999999998E-8</v>
+      </c>
+      <c r="I22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23">
+        <v>7.9100000000000004E-2</v>
+      </c>
+      <c r="C23">
+        <v>7.7000000000000002E-3</v>
+      </c>
+      <c r="D23">
+        <v>169.09</v>
+      </c>
+      <c r="E23">
+        <f>24.1</f>
+        <v>24.1</v>
+      </c>
+      <c r="F23">
+        <f>0.0427</f>
+        <v>4.2700000000000002E-2</v>
+      </c>
+      <c r="G23">
+        <f>0.0000804</f>
+        <v>8.0400000000000003E-5</v>
+      </c>
+      <c r="H23">
+        <f>-0.0000000687</f>
+        <v>-6.87E-8</v>
+      </c>
+      <c r="I23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>314</v>
+      </c>
+      <c r="B24">
+        <v>4.8099999999999997E-2</v>
+      </c>
+      <c r="C24">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D24">
+        <v>81.099999999999994</v>
+      </c>
+      <c r="E24">
+        <f>24.5</f>
+        <v>24.5</v>
+      </c>
+      <c r="F24">
+        <f>0.0402</f>
+        <v>4.02E-2</v>
+      </c>
+      <c r="G24">
+        <f>0.0000402</f>
+        <v>4.0200000000000001E-5</v>
+      </c>
+      <c r="H24">
+        <f>-0.0000000452</f>
+        <v>-4.5200000000000001E-8</v>
+      </c>
+      <c r="I24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>315</v>
+      </c>
+      <c r="B25">
+        <v>1.43E-2</v>
+      </c>
+      <c r="C25">
+        <v>1.01E-2</v>
+      </c>
+      <c r="D25">
+        <v>-10.5</v>
+      </c>
+      <c r="E25">
+        <f>6.82</f>
+        <v>6.82</v>
+      </c>
+      <c r="F25">
+        <f>0.0196</f>
+        <v>1.9599999999999999E-2</v>
+      </c>
+      <c r="G25">
+        <f>0.0000127</f>
+        <v>1.27E-5</v>
+      </c>
+      <c r="H25">
+        <f>-0.0000000178</f>
+        <v>-1.7800000000000001E-8</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>316</v>
+      </c>
+      <c r="B26">
+        <v>2.4299999999999999E-2</v>
+      </c>
+      <c r="C26">
+        <v>1.09E-2</v>
+      </c>
+      <c r="D26">
+        <v>73.23</v>
+      </c>
+      <c r="E26">
+        <f>26.9</f>
+        <v>26.9</v>
+      </c>
+      <c r="F26">
+        <f>-0.0412</f>
+        <v>-4.1200000000000001E-2</v>
+      </c>
+      <c r="G26">
+        <f>0.000164</f>
+        <v>1.64E-4</v>
+      </c>
+      <c r="H26">
+        <f>-0.0000000976</f>
+        <v>-9.76E-8</v>
+      </c>
+      <c r="I26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>189</v>
+      </c>
+      <c r="B27">
+        <v>2.9499999999999998E-2</v>
+      </c>
+      <c r="C27">
+        <v>7.7000000000000002E-3</v>
+      </c>
+      <c r="D27">
+        <v>50.17</v>
+      </c>
+      <c r="E27">
+        <v>-1.21</v>
+      </c>
+      <c r="F27">
+        <f>0.0762</f>
+        <v>7.6200000000000004E-2</v>
+      </c>
+      <c r="G27">
+        <f>-0.0000486</f>
+        <v>-4.8600000000000002E-5</v>
+      </c>
+      <c r="H27">
+        <f>0.0000000105</f>
+        <v>1.05E-8</v>
+      </c>
+      <c r="I27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>317</v>
+      </c>
+      <c r="B28">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="C28">
+        <v>1.14E-2</v>
+      </c>
+      <c r="D28">
+        <v>52.82</v>
+      </c>
+      <c r="E28">
+        <f>11.8</f>
+        <v>11.8</v>
+      </c>
+      <c r="F28">
+        <f>-0.023</f>
+        <v>-2.3E-2</v>
+      </c>
+      <c r="G28">
+        <f>0.000107</f>
+        <v>1.07E-4</v>
+      </c>
+      <c r="H28">
+        <f>-0.0000000628</f>
+        <v>-6.2800000000000006E-8</v>
+      </c>
+      <c r="I28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>318</v>
+      </c>
+      <c r="B29">
+        <v>1.6899999999999998E-2</v>
+      </c>
+      <c r="C29">
+        <v>7.4000000000000003E-3</v>
+      </c>
+      <c r="D29">
+        <v>11.74</v>
+      </c>
+      <c r="E29">
+        <f>-31.1</f>
+        <v>-31.1</v>
+      </c>
+      <c r="F29">
+        <f>0.227</f>
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="G29">
+        <f>-0.00032</f>
+        <v>-3.2000000000000003E-4</v>
+      </c>
+      <c r="H29">
+        <f>0.000000146</f>
+        <v>1.4600000000000001E-7</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>319</v>
+      </c>
+      <c r="B30">
+        <v>2.5499999999999998E-2</v>
+      </c>
+      <c r="C30">
+        <v>-9.9000000000000008E-3</v>
+      </c>
+      <c r="D30">
+        <v>74.599999999999994</v>
+      </c>
+      <c r="E30">
         <v>0</v>
       </c>
-      <c r="D4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5">
-        <v>8</v>
-      </c>
-      <c r="C5">
+      <c r="F30">
         <v>0</v>
       </c>
-      <c r="D5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6">
-        <v>8</v>
-      </c>
-      <c r="C6">
+      <c r="G30">
         <v>0</v>
       </c>
-      <c r="D6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7">
-        <v>8</v>
-      </c>
-      <c r="C7">
+      <c r="H30">
         <v>0</v>
       </c>
-      <c r="D7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>247</v>
-      </c>
-      <c r="B8">
-        <v>8</v>
-      </c>
-      <c r="C8">
+      <c r="I30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>320</v>
+      </c>
+      <c r="B31">
+        <v>8.5000000000000006E-3</v>
+      </c>
+      <c r="C31">
+        <v>7.6E-3</v>
+      </c>
+      <c r="D31">
+        <v>57.55</v>
+      </c>
+      <c r="E31">
+        <f>8.83</f>
+        <v>8.83</v>
+      </c>
+      <c r="F31">
+        <f>-0.00384</f>
+        <v>-3.8400000000000001E-3</v>
+      </c>
+      <c r="G31">
+        <f>0.0000435</f>
+        <v>4.35E-5</v>
+      </c>
+      <c r="H31">
+        <f>-0.000000026</f>
+        <v>-2.6000000000000001E-8</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>321</v>
+      </c>
+      <c r="B32">
         <v>0</v>
-      </c>
-      <c r="D8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9">
-        <v>8</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>257</v>
-      </c>
-      <c r="B10">
-        <v>8</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>258</v>
-      </c>
-      <c r="B11">
-        <v>8</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>259</v>
-      </c>
-      <c r="B12">
-        <v>8</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>260</v>
-      </c>
-      <c r="B13">
-        <v>8</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>261</v>
-      </c>
-      <c r="B14">
-        <v>8</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>262</v>
-      </c>
-      <c r="B15">
-        <v>8</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>66</v>
-      </c>
-      <c r="B16">
-        <v>8</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>263</v>
-      </c>
-      <c r="B17">
-        <v>8</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>264</v>
-      </c>
-      <c r="B18">
-        <v>8</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>266</v>
-      </c>
-      <c r="B19">
-        <v>8</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>278</v>
-      </c>
-      <c r="B20">
-        <v>8</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>288</v>
-      </c>
-      <c r="B21">
-        <v>8</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>175</v>
-      </c>
-      <c r="B22">
-        <v>8</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>181</v>
-      </c>
-      <c r="B23">
-        <v>8</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>182</v>
-      </c>
-      <c r="B24">
-        <v>8</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>185</v>
-      </c>
-      <c r="B25">
-        <v>8</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>186</v>
-      </c>
-      <c r="B26">
-        <v>8</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>190</v>
-      </c>
-      <c r="B27">
-        <v>8</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="14" t="s">
-        <v>248</v>
-      </c>
-      <c r="B28">
-        <v>8</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B29">
-        <v>8</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30">
-        <v>8</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B31">
-        <v>8</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="B32">
-        <v>8</v>
       </c>
       <c r="C32">
         <v>0</v>
       </c>
       <c r="D32">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="14" t="s">
-        <v>70</v>
+        <v>83.08</v>
+      </c>
+      <c r="E32">
+        <f>5.69</f>
+        <v>5.69</v>
+      </c>
+      <c r="F32">
+        <f>-0.00412</f>
+        <v>-4.1200000000000004E-3</v>
+      </c>
+      <c r="G32">
+        <f>0.000128</f>
+        <v>1.2799999999999999E-4</v>
+      </c>
+      <c r="H32">
+        <f>-0.0000000888</f>
+        <v>-8.8800000000000001E-8</v>
+      </c>
+      <c r="I32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>322</v>
       </c>
       <c r="B33">
-        <v>8</v>
+        <v>4.3700000000000003E-2</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>6.4000000000000003E-3</v>
       </c>
       <c r="D33">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="14" t="s">
-        <v>133</v>
+        <v>152.54</v>
+      </c>
+      <c r="E33">
+        <f>25.9</f>
+        <v>25.9</v>
+      </c>
+      <c r="F33">
+        <f>-0.00374</f>
+        <v>-3.7399999999999998E-3</v>
+      </c>
+      <c r="G33">
+        <f>0.000129</f>
+        <v>1.2899999999999999E-4</v>
+      </c>
+      <c r="H33">
+        <f>-0.0000000888</f>
+        <v>-8.8800000000000001E-8</v>
+      </c>
+      <c r="I33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>323</v>
       </c>
       <c r="B34">
-        <v>8</v>
+        <v>1.9E-3</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>5.1000000000000004E-3</v>
       </c>
       <c r="D34">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="B35">
-        <v>8</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35">
+        <v>52.1</v>
+      </c>
+      <c r="E34">
+        <f>16.7</f>
+        <v>16.7</v>
+      </c>
+      <c r="F34">
+        <f>0.00481</f>
+        <v>4.81E-3</v>
+      </c>
+      <c r="G34">
+        <f>0.0000277</f>
+        <v>2.7699999999999999E-5</v>
+      </c>
+      <c r="H34">
+        <f>-0.0000000211</f>
+        <v>-2.11E-8</v>
+      </c>
+      <c r="I34">
         <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="B36">
-        <v>8</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="D36">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="14" t="s">
-        <v>284</v>
-      </c>
-      <c r="B37">
-        <v>8</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="B38">
-        <v>8</v>
-      </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-      <c r="D38">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -15846,1138 +15975,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23F6FF9F-8B9B-488C-B485-3ABBC4416DFF}">
-  <dimension ref="A1:I34"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="146" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="3" width="9.140625" customWidth="1"/>
-    <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>324</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>325</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>326</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>327</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>328</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>329</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>330</v>
-      </c>
-      <c r="I1" s="20" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>293</v>
-      </c>
-      <c r="B2">
-        <v>1.41E-2</v>
-      </c>
-      <c r="C2">
-        <v>-1.1999999999999999E-3</v>
-      </c>
-      <c r="D2">
-        <v>23.58</v>
-      </c>
-      <c r="E2">
-        <f>19.5</f>
-        <v>19.5</v>
-      </c>
-      <c r="F2">
-        <f>-0.00808</f>
-        <v>-8.0800000000000004E-3</v>
-      </c>
-      <c r="G2">
-        <f>0.000153</f>
-        <v>1.5300000000000001E-4</v>
-      </c>
-      <c r="H2" s="15">
-        <f>0.0000000967</f>
-        <v>9.6699999999999999E-8</v>
-      </c>
-      <c r="I2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>294</v>
-      </c>
-      <c r="B3">
-        <v>1.89E-2</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>22.88</v>
-      </c>
-      <c r="E3">
-        <f>-0.909</f>
-        <v>-0.90900000000000003</v>
-      </c>
-      <c r="F3">
-        <f>0.095</f>
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="G3">
-        <f>-0.0000544</f>
-        <v>-5.4400000000000001E-5</v>
-      </c>
-      <c r="H3">
-        <f>0.0000000119</f>
-        <v>1.1900000000000001E-8</v>
-      </c>
-      <c r="I3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>295</v>
-      </c>
-      <c r="B4">
-        <v>1.6400000000000001E-2</v>
-      </c>
-      <c r="C4">
-        <v>2E-3</v>
-      </c>
-      <c r="D4">
-        <v>21.74</v>
-      </c>
-      <c r="E4">
-        <f>-23</f>
-        <v>-23</v>
-      </c>
-      <c r="F4">
-        <f>0.204</f>
-        <v>0.20399999999999999</v>
-      </c>
-      <c r="G4">
-        <f>-0.000265</f>
-        <v>-2.6499999999999999E-4</v>
-      </c>
-      <c r="H4">
-        <f>0.00000012</f>
-        <v>1.1999999999999999E-7</v>
-      </c>
-      <c r="I4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>296</v>
-      </c>
-      <c r="B5">
-        <v>6.7000000000000002E-3</v>
-      </c>
-      <c r="C5">
-        <v>4.3E-3</v>
-      </c>
-      <c r="D5">
-        <v>18.25</v>
-      </c>
-      <c r="E5">
-        <f>-66.2</f>
-        <v>-66.2</v>
-      </c>
-      <c r="F5">
-        <f>0.427</f>
-        <v>0.42699999999999999</v>
-      </c>
-      <c r="G5">
-        <f>-0.000641</f>
-        <v>-6.4099999999999997E-4</v>
-      </c>
-      <c r="H5">
-        <f>0.000000301</f>
-        <v>3.0100000000000001E-7</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>297</v>
-      </c>
-      <c r="B6">
-        <v>1.1299999999999999E-2</v>
-      </c>
-      <c r="C6">
-        <v>-2.8E-3</v>
-      </c>
-      <c r="D6">
-        <v>18.18</v>
-      </c>
-      <c r="E6">
-        <f>23.6</f>
-        <v>23.6</v>
-      </c>
-      <c r="F6">
-        <f>-0.0381</f>
-        <v>-3.8100000000000002E-2</v>
-      </c>
-      <c r="G6">
-        <f>0.000172</f>
-        <v>1.7200000000000001E-4</v>
-      </c>
-      <c r="H6">
-        <f>-0.000000103</f>
-        <v>-1.03E-7</v>
-      </c>
-      <c r="I6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>298</v>
-      </c>
-      <c r="B7">
-        <v>1.29E-2</v>
-      </c>
-      <c r="C7">
-        <v>-5.9999999999999995E-4</v>
-      </c>
-      <c r="D7">
-        <v>24.96</v>
-      </c>
-      <c r="E7">
-        <v>-8</v>
-      </c>
-      <c r="F7">
-        <f>0.105</f>
-        <v>0.105</v>
-      </c>
-      <c r="G7">
-        <f>-0.0000963</f>
-        <v>-9.6299999999999996E-5</v>
-      </c>
-      <c r="H7">
-        <f>0.0000000356</f>
-        <v>3.5600000000000001E-8</v>
-      </c>
-      <c r="I7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>299</v>
-      </c>
-      <c r="B8">
-        <v>1.17E-2</v>
-      </c>
-      <c r="C8">
-        <v>1.1000000000000001E-3</v>
-      </c>
-      <c r="D8">
-        <v>24.14</v>
-      </c>
-      <c r="E8">
-        <f>-28.1</f>
-        <v>-28.1</v>
-      </c>
-      <c r="F8">
-        <f>0.208</f>
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="G8">
-        <f>-0.000306</f>
-        <v>-3.0600000000000001E-4</v>
-      </c>
-      <c r="H8">
-        <f>0.000000146</f>
-        <v>1.4600000000000001E-7</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>300</v>
-      </c>
-      <c r="B9">
-        <v>2.5999999999999999E-3</v>
-      </c>
-      <c r="C9">
-        <v>2.8E-3</v>
-      </c>
-      <c r="D9">
-        <v>26.15</v>
-      </c>
-      <c r="E9">
-        <f>27.4</f>
-        <v>27.4</v>
-      </c>
-      <c r="F9">
-        <f>-0.0557</f>
-        <v>-5.57E-2</v>
-      </c>
-      <c r="G9">
-        <f>0.000101</f>
-        <v>1.01E-4</v>
-      </c>
-      <c r="H9">
-        <f>-0.0000000502</f>
-        <v>-5.02E-8</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>301</v>
-      </c>
-      <c r="B10">
-        <v>0.01</v>
-      </c>
-      <c r="C10">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="D10">
-        <v>27.15</v>
-      </c>
-      <c r="E10">
-        <v>-6.03</v>
-      </c>
-      <c r="F10">
-        <f>0.0854</f>
-        <v>8.5400000000000004E-2</v>
-      </c>
-      <c r="G10">
-        <f>-0.000008</f>
-        <v>-7.9999999999999996E-6</v>
-      </c>
-      <c r="H10">
-        <f>-0.000000018</f>
-        <v>-1.7999999999999999E-8</v>
-      </c>
-      <c r="I10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>302</v>
-      </c>
-      <c r="B11">
-        <v>1.2200000000000001E-2</v>
-      </c>
-      <c r="C11">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="D11">
-        <v>21.78</v>
-      </c>
-      <c r="E11">
-        <f>-20.5</f>
-        <v>-20.5</v>
-      </c>
-      <c r="F11">
-        <f>0.162</f>
-        <v>0.16200000000000001</v>
-      </c>
-      <c r="G11">
-        <f>-0.00016</f>
-        <v>-1.6000000000000001E-4</v>
-      </c>
-      <c r="H11">
-        <f>0.0000000624</f>
-        <v>6.2400000000000003E-8</v>
-      </c>
-      <c r="I11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>303</v>
-      </c>
-      <c r="B12">
-        <v>4.1999999999999997E-3</v>
-      </c>
-      <c r="C12">
-        <v>6.1000000000000004E-3</v>
-      </c>
-      <c r="D12">
-        <v>21.32</v>
-      </c>
-      <c r="E12">
-        <f>-90.9</f>
-        <v>-90.9</v>
-      </c>
-      <c r="F12">
-        <f>0.557</f>
-        <v>0.55700000000000005</v>
-      </c>
-      <c r="G12">
-        <f>-0.0009</f>
-        <v>-8.9999999999999998E-4</v>
-      </c>
-      <c r="H12">
-        <f>0.000000469</f>
-        <v>4.6899999999999998E-7</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>304</v>
-      </c>
-      <c r="B13">
-        <v>8.2000000000000007E-3</v>
-      </c>
-      <c r="C13">
-        <v>1.1000000000000001E-3</v>
-      </c>
-      <c r="D13">
-        <v>26.73</v>
-      </c>
-      <c r="E13">
-        <f>-2.14</f>
-        <v>-2.14</v>
-      </c>
-      <c r="F13">
-        <f>0.0574</f>
-        <v>5.74E-2</v>
-      </c>
-      <c r="G13">
-        <f>-0.00000164</f>
-        <v>-1.64E-6</v>
-      </c>
-      <c r="H13">
-        <f>-0.0000000159</f>
-        <v>-1.59E-8</v>
-      </c>
-      <c r="I13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>305</v>
-      </c>
-      <c r="B14">
-        <v>1.43E-2</v>
-      </c>
-      <c r="C14">
-        <v>8.0000000000000004E-4</v>
-      </c>
-      <c r="D14">
-        <v>31.01</v>
-      </c>
-      <c r="E14">
-        <f>-8.25</f>
-        <v>-8.25</v>
-      </c>
-      <c r="F14">
-        <f>0.101</f>
-        <v>0.10100000000000001</v>
-      </c>
-      <c r="G14">
-        <f>-0.000142</f>
-        <v>-1.4200000000000001E-4</v>
-      </c>
-      <c r="H14">
-        <f>0.0000000678</f>
-        <v>6.7799999999999998E-8</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>306</v>
-      </c>
-      <c r="B15">
-        <v>1.3299999999999999E-2</v>
-      </c>
-      <c r="C15">
-        <v>5.7000000000000002E-3</v>
-      </c>
-      <c r="D15">
-        <v>66.86</v>
-      </c>
-      <c r="E15">
-        <v>28.6</v>
-      </c>
-      <c r="F15">
-        <f>-0.0649</f>
-        <v>-6.4899999999999999E-2</v>
-      </c>
-      <c r="G15">
-        <f>0.000136</f>
-        <v>1.36E-4</v>
-      </c>
-      <c r="H15">
-        <f>-0.0000000745</f>
-        <v>-7.4499999999999999E-8</v>
-      </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>307</v>
-      </c>
-      <c r="B16">
-        <v>7.4099999999999999E-2</v>
-      </c>
-      <c r="C16">
-        <v>1.12E-2</v>
-      </c>
-      <c r="D16">
-        <v>92.88</v>
-      </c>
-      <c r="E16">
-        <f>25.7</f>
-        <v>25.7</v>
-      </c>
-      <c r="F16">
-        <f>-0.0691</f>
-        <v>-6.9099999999999995E-2</v>
-      </c>
-      <c r="G16">
-        <f>0.000177</f>
-        <v>1.7699999999999999E-4</v>
-      </c>
-      <c r="H16">
-        <f>-0.0000000988</f>
-        <v>-9.8799999999999998E-8</v>
-      </c>
-      <c r="I16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>308</v>
-      </c>
-      <c r="B17">
-        <v>2.4E-2</v>
-      </c>
-      <c r="C17">
-        <v>1.84E-2</v>
-      </c>
-      <c r="D17">
-        <v>76.34</v>
-      </c>
-      <c r="E17">
-        <f>-2.81</f>
-        <v>-2.81</v>
-      </c>
-      <c r="F17">
-        <f>0.111</f>
-        <v>0.111</v>
-      </c>
-      <c r="G17">
-        <f>-0.000116</f>
-        <v>-1.16E-4</v>
-      </c>
-      <c r="H17">
-        <f>0.0000000494</f>
-        <v>4.9399999999999999E-8</v>
-      </c>
-      <c r="I17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>309</v>
-      </c>
-      <c r="B18">
-        <v>1.6799999999999999E-2</v>
-      </c>
-      <c r="C18">
-        <v>1.5E-3</v>
-      </c>
-      <c r="D18">
-        <v>22.42</v>
-      </c>
-      <c r="E18">
-        <f>25.5</f>
-        <v>25.5</v>
-      </c>
-      <c r="F18">
-        <f>-0.0632</f>
-        <v>-6.3200000000000006E-2</v>
-      </c>
-      <c r="G18">
-        <f>0.000111</f>
-        <v>1.11E-4</v>
-      </c>
-      <c r="H18">
-        <f>-0.0000000548</f>
-        <v>-5.4800000000000001E-8</v>
-      </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>310</v>
-      </c>
-      <c r="B19">
-        <v>9.7999999999999997E-3</v>
-      </c>
-      <c r="C19">
-        <v>4.7999999999999996E-3</v>
-      </c>
-      <c r="D19">
-        <v>31.22</v>
-      </c>
-      <c r="E19">
-        <f>12.2</f>
-        <v>12.2</v>
-      </c>
-      <c r="F19">
-        <f>-0.0126</f>
-        <v>-1.26E-2</v>
-      </c>
-      <c r="G19">
-        <f>0.0000603</f>
-        <v>6.0300000000000002E-5</v>
-      </c>
-      <c r="H19">
-        <f>-0.0000000386</f>
-        <v>-3.8600000000000002E-8</v>
-      </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>311</v>
-      </c>
-      <c r="B20">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="C20">
-        <v>3.0999999999999999E-3</v>
-      </c>
-      <c r="D20">
-        <v>76.75</v>
-      </c>
-      <c r="E20">
-        <v>6.45</v>
-      </c>
-      <c r="F20" s="15">
-        <f>0.067</f>
-        <v>6.7000000000000004E-2</v>
-      </c>
-      <c r="G20">
-        <f>-0.0000357</f>
-        <v>-3.57E-5</v>
-      </c>
-      <c r="H20">
-        <f>0.00000000286</f>
-        <v>2.86E-9</v>
-      </c>
-      <c r="I20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>312</v>
-      </c>
-      <c r="B21">
-        <v>2.8400000000000002E-2</v>
-      </c>
-      <c r="C21">
-        <v>2.8E-3</v>
-      </c>
-      <c r="D21">
-        <v>94.97</v>
-      </c>
-      <c r="E21">
-        <f>30.4</f>
-        <v>30.4</v>
-      </c>
-      <c r="F21">
-        <f>-0.0829</f>
-        <v>-8.2900000000000001E-2</v>
-      </c>
-      <c r="G21">
-        <f>0.000236</f>
-        <v>2.3599999999999999E-4</v>
-      </c>
-      <c r="H21">
-        <f>-0.000000013</f>
-        <v>-1.3000000000000001E-8</v>
-      </c>
-      <c r="I21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>313</v>
-      </c>
-      <c r="B22">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="C22">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="D22">
-        <v>72.239999999999995</v>
-      </c>
-      <c r="E22">
-        <f>30.9</f>
-        <v>30.9</v>
-      </c>
-      <c r="F22">
-        <f>-0.0336</f>
-        <v>-3.3599999999999998E-2</v>
-      </c>
-      <c r="G22">
-        <f>0.00016</f>
-        <v>1.6000000000000001E-4</v>
-      </c>
-      <c r="H22">
-        <f>-0.0000000988</f>
-        <v>-9.8799999999999998E-8</v>
-      </c>
-      <c r="I22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23">
-        <v>7.9100000000000004E-2</v>
-      </c>
-      <c r="C23">
-        <v>7.7000000000000002E-3</v>
-      </c>
-      <c r="D23">
-        <v>169.09</v>
-      </c>
-      <c r="E23">
-        <f>24.1</f>
-        <v>24.1</v>
-      </c>
-      <c r="F23">
-        <f>0.0427</f>
-        <v>4.2700000000000002E-2</v>
-      </c>
-      <c r="G23">
-        <f>0.0000804</f>
-        <v>8.0400000000000003E-5</v>
-      </c>
-      <c r="H23">
-        <f>-0.0000000687</f>
-        <v>-6.87E-8</v>
-      </c>
-      <c r="I23">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>314</v>
-      </c>
-      <c r="B24">
-        <v>4.8099999999999997E-2</v>
-      </c>
-      <c r="C24">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="D24">
-        <v>81.099999999999994</v>
-      </c>
-      <c r="E24">
-        <f>24.5</f>
-        <v>24.5</v>
-      </c>
-      <c r="F24">
-        <f>0.0402</f>
-        <v>4.02E-2</v>
-      </c>
-      <c r="G24">
-        <f>0.0000402</f>
-        <v>4.0200000000000001E-5</v>
-      </c>
-      <c r="H24">
-        <f>-0.0000000452</f>
-        <v>-4.5200000000000001E-8</v>
-      </c>
-      <c r="I24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>315</v>
-      </c>
-      <c r="B25">
-        <v>1.43E-2</v>
-      </c>
-      <c r="C25">
-        <v>1.01E-2</v>
-      </c>
-      <c r="D25">
-        <v>-10.5</v>
-      </c>
-      <c r="E25">
-        <f>6.82</f>
-        <v>6.82</v>
-      </c>
-      <c r="F25">
-        <f>0.0196</f>
-        <v>1.9599999999999999E-2</v>
-      </c>
-      <c r="G25">
-        <f>0.0000127</f>
-        <v>1.27E-5</v>
-      </c>
-      <c r="H25">
-        <f>-0.0000000178</f>
-        <v>-1.7800000000000001E-8</v>
-      </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>316</v>
-      </c>
-      <c r="B26">
-        <v>2.4299999999999999E-2</v>
-      </c>
-      <c r="C26">
-        <v>1.09E-2</v>
-      </c>
-      <c r="D26">
-        <v>73.23</v>
-      </c>
-      <c r="E26">
-        <f>26.9</f>
-        <v>26.9</v>
-      </c>
-      <c r="F26">
-        <f>-0.0412</f>
-        <v>-4.1200000000000001E-2</v>
-      </c>
-      <c r="G26">
-        <f>0.000164</f>
-        <v>1.64E-4</v>
-      </c>
-      <c r="H26">
-        <f>-0.0000000976</f>
-        <v>-9.76E-8</v>
-      </c>
-      <c r="I26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>189</v>
-      </c>
-      <c r="B27">
-        <v>2.9499999999999998E-2</v>
-      </c>
-      <c r="C27">
-        <v>7.7000000000000002E-3</v>
-      </c>
-      <c r="D27">
-        <v>50.17</v>
-      </c>
-      <c r="E27">
-        <v>-1.21</v>
-      </c>
-      <c r="F27">
-        <f>0.0762</f>
-        <v>7.6200000000000004E-2</v>
-      </c>
-      <c r="G27">
-        <f>-0.0000486</f>
-        <v>-4.8600000000000002E-5</v>
-      </c>
-      <c r="H27">
-        <f>0.0000000105</f>
-        <v>1.05E-8</v>
-      </c>
-      <c r="I27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>317</v>
-      </c>
-      <c r="B28">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="C28">
-        <v>1.14E-2</v>
-      </c>
-      <c r="D28">
-        <v>52.82</v>
-      </c>
-      <c r="E28">
-        <f>11.8</f>
-        <v>11.8</v>
-      </c>
-      <c r="F28">
-        <f>-0.023</f>
-        <v>-2.3E-2</v>
-      </c>
-      <c r="G28">
-        <f>0.000107</f>
-        <v>1.07E-4</v>
-      </c>
-      <c r="H28">
-        <f>-0.0000000628</f>
-        <v>-6.2800000000000006E-8</v>
-      </c>
-      <c r="I28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>318</v>
-      </c>
-      <c r="B29">
-        <v>1.6899999999999998E-2</v>
-      </c>
-      <c r="C29">
-        <v>7.4000000000000003E-3</v>
-      </c>
-      <c r="D29">
-        <v>11.74</v>
-      </c>
-      <c r="E29">
-        <f>-31.1</f>
-        <v>-31.1</v>
-      </c>
-      <c r="F29">
-        <f>0.227</f>
-        <v>0.22700000000000001</v>
-      </c>
-      <c r="G29">
-        <f>-0.00032</f>
-        <v>-3.2000000000000003E-4</v>
-      </c>
-      <c r="H29">
-        <f>0.000000146</f>
-        <v>1.4600000000000001E-7</v>
-      </c>
-      <c r="I29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>319</v>
-      </c>
-      <c r="B30">
-        <v>2.5499999999999998E-2</v>
-      </c>
-      <c r="C30">
-        <v>-9.9000000000000008E-3</v>
-      </c>
-      <c r="D30">
-        <v>74.599999999999994</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="I30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>320</v>
-      </c>
-      <c r="B31">
-        <v>8.5000000000000006E-3</v>
-      </c>
-      <c r="C31">
-        <v>7.6E-3</v>
-      </c>
-      <c r="D31">
-        <v>57.55</v>
-      </c>
-      <c r="E31">
-        <f>8.83</f>
-        <v>8.83</v>
-      </c>
-      <c r="F31">
-        <f>-0.00384</f>
-        <v>-3.8400000000000001E-3</v>
-      </c>
-      <c r="G31">
-        <f>0.0000435</f>
-        <v>4.35E-5</v>
-      </c>
-      <c r="H31">
-        <f>-0.000000026</f>
-        <v>-2.6000000000000001E-8</v>
-      </c>
-      <c r="I31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>321</v>
-      </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <v>83.08</v>
-      </c>
-      <c r="E32">
-        <f>5.69</f>
-        <v>5.69</v>
-      </c>
-      <c r="F32">
-        <f>-0.00412</f>
-        <v>-4.1200000000000004E-3</v>
-      </c>
-      <c r="G32">
-        <f>0.000128</f>
-        <v>1.2799999999999999E-4</v>
-      </c>
-      <c r="H32">
-        <f>-0.0000000888</f>
-        <v>-8.8800000000000001E-8</v>
-      </c>
-      <c r="I32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>322</v>
-      </c>
-      <c r="B33">
-        <v>4.3700000000000003E-2</v>
-      </c>
-      <c r="C33">
-        <v>6.4000000000000003E-3</v>
-      </c>
-      <c r="D33">
-        <v>152.54</v>
-      </c>
-      <c r="E33">
-        <f>25.9</f>
-        <v>25.9</v>
-      </c>
-      <c r="F33">
-        <f>-0.00374</f>
-        <v>-3.7399999999999998E-3</v>
-      </c>
-      <c r="G33">
-        <f>0.000129</f>
-        <v>1.2899999999999999E-4</v>
-      </c>
-      <c r="H33">
-        <f>-0.0000000888</f>
-        <v>-8.8800000000000001E-8</v>
-      </c>
-      <c r="I33">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>323</v>
-      </c>
-      <c r="B34">
-        <v>1.9E-3</v>
-      </c>
-      <c r="C34">
-        <v>5.1000000000000004E-3</v>
-      </c>
-      <c r="D34">
-        <v>52.1</v>
-      </c>
-      <c r="E34">
-        <f>16.7</f>
-        <v>16.7</v>
-      </c>
-      <c r="F34">
-        <f>0.00481</f>
-        <v>4.81E-3</v>
-      </c>
-      <c r="G34">
-        <f>0.0000277</f>
-        <v>2.7699999999999999E-5</v>
-      </c>
-      <c r="H34">
-        <f>-0.0000000211</f>
-        <v>-2.11E-8</v>
-      </c>
-      <c r="I34">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45B56910-AAB0-40E6-8FD2-FDCE2FEF400D}">
   <dimension ref="A1:G7"/>
   <sheetViews>
@@ -16985,14 +15983,14 @@
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" s="13" t="s">
         <v>231</v>
       </c>
@@ -17012,7 +16010,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>237</v>
       </c>
@@ -17035,7 +16033,7 @@
         <v>2.3800000000000002E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>331</v>
       </c>
@@ -17058,7 +16056,7 @@
         <v>1.04E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -17081,7 +16079,7 @@
         <v>2.07E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>332</v>
       </c>
@@ -17110,7 +16108,7 @@
         <v>5.4900000000000004E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>333</v>
       </c>
@@ -17127,7 +16125,7 @@
         <v>14.88095238095238</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>334</v>
       </c>

--- a/GCs.xlsx
+++ b/GCs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natur\Documents\AOBaddies\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://imperiallondon-my.sharepoint.com/personal/att22_ic_ac_uk/Documents/AAYEAR4/APO1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3AD5CF5-EB09-40CD-A08F-45EA97C83165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="911" documentId="8_{1BB338DD-5CE3-4F3B-820B-FA7D83DA8823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B4AA674E-550E-4557-9964-5AFB455E8856}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{8EFD0542-B832-47AD-A0F7-47D90D0B881B}"/>
   </bookViews>
@@ -120,7 +120,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="338">
   <si>
     <t>Group</t>
   </si>
@@ -2903,9 +2903,6 @@
     <t>D0i</t>
   </si>
   <si>
-    <t>maxgroups</t>
-  </si>
-  <si>
     <t>O</t>
   </si>
   <si>
@@ -2916,6 +2913,12 @@
   </si>
   <si>
     <t>RED</t>
+  </si>
+  <si>
+    <t>nimax</t>
+  </si>
+  <si>
+    <t>nimin</t>
   </si>
   <si>
     <t>ai</t>
@@ -12515,10 +12518,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{297960EB-DBC8-44A4-9F73-359D156C6248}">
-  <dimension ref="A1:K38"/>
+  <dimension ref="A1:M38"/>
   <sheetViews>
     <sheetView zoomScale="71" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+      <selection activeCell="P35" sqref="P35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12526,7 +12529,7 @@
     <col min="4" max="4" width="47.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>227</v>
       </c>
@@ -12560,8 +12563,14 @@
       <c r="K1" s="13" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -12595,8 +12604,14 @@
       <c r="K2">
         <v>2.3800000000000002E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2">
+        <v>8</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -12630,8 +12645,14 @@
       <c r="K3">
         <v>1.66E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3">
+        <v>8</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -12665,8 +12686,14 @@
       <c r="K4">
         <v>8.3999999999999995E-3</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4">
+        <v>8</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -12700,8 +12727,14 @@
       <c r="K5">
         <v>-1.5E-3</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5">
+        <v>8</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>15</v>
       </c>
@@ -12735,8 +12768,14 @@
       <c r="K6">
         <v>1.2E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6">
+        <v>8</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>19</v>
       </c>
@@ -12770,8 +12809,14 @@
       <c r="K7">
         <v>5.1999999999999998E-3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7">
+        <v>8</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>20</v>
       </c>
@@ -12805,8 +12850,14 @@
       <c r="K8">
         <v>3.0200000000000001E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8">
+        <v>8</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>29</v>
       </c>
@@ -12840,8 +12891,14 @@
       <c r="K9">
         <v>4.1999999999999997E-3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L9">
+        <v>8</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>49</v>
       </c>
@@ -12875,8 +12932,14 @@
       <c r="K10">
         <v>2.81E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L10">
+        <v>8</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>50</v>
       </c>
@@ -12910,8 +12973,14 @@
       <c r="K11">
         <v>2.2800000000000001E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L11">
+        <v>8</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>54</v>
       </c>
@@ -12945,8 +13014,14 @@
       <c r="K12">
         <v>2.6200000000000001E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L12">
+        <v>8</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>55</v>
       </c>
@@ -12980,8 +13055,14 @@
       <c r="K13">
         <v>2.1399999999999999E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L13">
+        <v>8</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>57</v>
       </c>
@@ -13015,8 +13096,14 @@
       <c r="K14">
         <v>2.7900000000000001E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L14">
+        <v>8</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>58</v>
       </c>
@@ -13050,8 +13137,14 @@
       <c r="K15">
         <v>2.46E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L15">
+        <v>8</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>59</v>
       </c>
@@ -13085,8 +13178,14 @@
       <c r="K16">
         <v>1.8200000000000001E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L16">
+        <v>8</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>60</v>
       </c>
@@ -13120,8 +13219,14 @@
       <c r="K17">
         <v>2.6499999999999999E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L17">
+        <v>8</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>61</v>
       </c>
@@ -13155,8 +13260,14 @@
       <c r="K18">
         <v>1.9E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L18">
+        <v>8</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>65</v>
       </c>
@@ -13190,8 +13301,14 @@
       <c r="K19">
         <v>9.5999999999999992E-3</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L19">
+        <v>8</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>134</v>
       </c>
@@ -13225,8 +13342,14 @@
       <c r="K20">
         <v>4.1700000000000001E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L20">
+        <v>8</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>168</v>
       </c>
@@ -13260,8 +13383,14 @@
       <c r="K21">
         <v>1.6E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L21">
+        <v>8</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>169</v>
       </c>
@@ -13295,8 +13424,14 @@
       <c r="K22">
         <v>5.8999999999999999E-3</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L22">
+        <v>8</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>175</v>
       </c>
@@ -13330,8 +13465,14 @@
       <c r="K23">
         <v>3.5000000000000001E-3</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L23">
+        <v>8</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>176</v>
       </c>
@@ -13365,8 +13506,14 @@
       <c r="K24">
         <v>1.6999999999999999E-3</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L24">
+        <v>8</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>179</v>
       </c>
@@ -13400,8 +13547,14 @@
       <c r="K25">
         <v>2E-3</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L25">
+        <v>8</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>180</v>
       </c>
@@ -13435,8 +13588,14 @@
       <c r="K26">
         <v>1.2E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L26">
+        <v>8</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>184</v>
       </c>
@@ -13470,8 +13629,14 @@
       <c r="K27">
         <v>1.04E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L27">
+        <v>8</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
         <v>21</v>
       </c>
@@ -13505,8 +13670,14 @@
       <c r="K28" s="14">
         <v>2.29E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L28">
+        <v>8</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
         <v>30</v>
       </c>
@@ -13540,8 +13711,14 @@
       <c r="K29" s="14">
         <v>1.7000000000000001E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L29">
+        <v>8</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="14">
         <v>31</v>
       </c>
@@ -13575,8 +13752,14 @@
       <c r="K30" s="14">
         <v>2.07E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L30">
+        <v>8</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="14">
         <v>32</v>
       </c>
@@ -13610,8 +13793,14 @@
       <c r="K31" s="14">
         <v>4.7800000000000002E-2</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L31">
+        <v>8</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="14">
         <v>62</v>
       </c>
@@ -13645,8 +13834,14 @@
       <c r="K32" s="14">
         <v>2.5999999999999999E-2</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L32">
+        <v>8</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="14">
         <v>63</v>
       </c>
@@ -13680,8 +13875,14 @@
       <c r="K33" s="14">
         <v>1.18E-2</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L33">
+        <v>8</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="14">
         <v>126</v>
       </c>
@@ -13715,8 +13916,14 @@
       <c r="K34" s="14">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L34">
+        <v>8</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="14">
         <v>128</v>
       </c>
@@ -13750,8 +13957,14 @@
       <c r="K35" s="14">
         <v>2.1299999999999999E-2</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="14">
         <v>148</v>
       </c>
@@ -13785,8 +13998,14 @@
       <c r="K36" s="14">
         <v>1.43E-2</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L36">
+        <v>8</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="14">
         <v>149</v>
       </c>
@@ -13820,8 +14039,14 @@
       <c r="K37" s="14">
         <v>2.3699999999999999E-2</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L37">
+        <v>8</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="14">
         <v>170</v>
       </c>
@@ -13854,6 +14079,12 @@
       </c>
       <c r="K38" s="14">
         <v>0.13930000000000001</v>
+      </c>
+      <c r="L38">
+        <v>8</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -15070,10 +15301,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7EBF146-937E-4601-B58E-56AADBC56C60}">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="B1" sqref="B1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15081,308 +15312,533 @@
     <col min="1" max="1" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>291</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+      <c r="C1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>237</v>
       </c>
       <c r="B2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>239</v>
       </c>
       <c r="B3">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
       <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
       <c r="B6">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>26</v>
       </c>
       <c r="B7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>247</v>
       </c>
       <c r="B8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>36</v>
       </c>
       <c r="B9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>257</v>
       </c>
       <c r="B10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>258</v>
       </c>
       <c r="B11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>259</v>
       </c>
       <c r="B12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>260</v>
       </c>
       <c r="B13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>261</v>
       </c>
       <c r="B14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>262</v>
       </c>
       <c r="B15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>66</v>
       </c>
       <c r="B16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>263</v>
       </c>
       <c r="B17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>264</v>
       </c>
       <c r="B18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>266</v>
       </c>
       <c r="B19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>278</v>
       </c>
       <c r="B20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>288</v>
       </c>
       <c r="B21">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>175</v>
       </c>
       <c r="B22">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>181</v>
       </c>
       <c r="B23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>182</v>
       </c>
       <c r="B24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>185</v>
       </c>
       <c r="B25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>186</v>
       </c>
       <c r="B26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>190</v>
       </c>
       <c r="B27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>248</v>
       </c>
       <c r="B28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>37</v>
       </c>
       <c r="B29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>38</v>
       </c>
       <c r="B30">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>39</v>
       </c>
       <c r="B31">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>265</v>
       </c>
       <c r="B32">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>70</v>
       </c>
       <c r="B33">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>133</v>
       </c>
       <c r="B34">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>135</v>
       </c>
       <c r="B35">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
         <v>155</v>
       </c>
       <c r="B36">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
         <v>284</v>
       </c>
       <c r="B37">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
         <v>176</v>
       </c>
       <c r="B38">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -15394,7 +15850,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23F6FF9F-8B9B-488C-B485-3ABBC4416DFF}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="146" workbookViewId="0">
       <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
@@ -15433,7 +15889,7 @@
         <v>330</v>
       </c>
       <c r="I1" s="20" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -16581,7 +17037,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B3">
         <v>1.1378999999999999</v>
@@ -16627,7 +17083,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B5">
         <f>SUM(B2:B4)</f>
@@ -16656,7 +17112,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B6" s="16">
         <f>LN(B5)*244.7889</f>
@@ -16673,7 +17129,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E7" s="16">
         <f>SQRT((4*(D5-15.7)^2+(E5-5.2)^2+(F5-5.8)^2))/3.3</f>

--- a/GCs.xlsx
+++ b/GCs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://imperiallondon-my.sharepoint.com/personal/att22_ic_ac_uk/Documents/AAYEAR4/APO1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natur\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="911" documentId="8_{1BB338DD-5CE3-4F3B-820B-FA7D83DA8823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B4AA674E-550E-4557-9964-5AFB455E8856}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1D0FEC2-8D4D-4328-B19E-4FDA916DFD2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{8EFD0542-B832-47AD-A0F7-47D90D0B881B}"/>
+    <workbookView xWindow="31815" yWindow="2940" windowWidth="21600" windowHeight="10920" activeTab="2" xr2:uid="{8EFD0542-B832-47AD-A0F7-47D90D0B881B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3148,6 +3148,9 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3155,9 +3158,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -7469,16 +7469,16 @@
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A150" s="17">
+      <c r="A150" s="18">
         <v>149</v>
       </c>
-      <c r="B150" s="17" t="e" vm="1">
+      <c r="B150" s="18" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="C150" s="17">
+      <c r="C150" s="18">
         <v>5.0639000000000003</v>
       </c>
-      <c r="D150" s="17">
+      <c r="D150" s="18">
         <v>6.4215</v>
       </c>
       <c r="E150" s="3">
@@ -7490,19 +7490,19 @@
       <c r="G150" s="3">
         <v>-0.33250000000000002</v>
       </c>
-      <c r="H150" s="17">
+      <c r="H150" s="18">
         <v>2.3699999999999999E-2</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A151" s="17"/>
-      <c r="B151" s="17"/>
-      <c r="C151" s="17"/>
-      <c r="D151" s="17"/>
+      <c r="A151" s="18"/>
+      <c r="B151" s="18"/>
+      <c r="C151" s="18"/>
+      <c r="D151" s="18"/>
       <c r="E151" s="3"/>
       <c r="F151" s="3"/>
       <c r="G151" s="3"/>
-      <c r="H151" s="17"/>
+      <c r="H151" s="18"/>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="3">
@@ -12520,8 +12520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{297960EB-DBC8-44A4-9F73-359D156C6248}">
   <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView zoomScale="71" workbookViewId="0">
-      <selection activeCell="P35" sqref="P35"/>
+    <sheetView tabSelected="1" zoomScale="71" workbookViewId="0">
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13958,7 +13958,7 @@
         <v>2.1299999999999999E-2</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M35">
         <v>0</v>
@@ -15033,12 +15033,12 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>292</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -15850,8 +15850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23F6FF9F-8B9B-488C-B485-3ABBC4416DFF}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="146" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15888,7 +15888,7 @@
       <c r="H1" s="13" t="s">
         <v>330</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="17" t="s">
         <v>337</v>
       </c>
     </row>

--- a/GCs.xlsx
+++ b/GCs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natur\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natur\Documents\AOBaddies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1D0FEC2-8D4D-4328-B19E-4FDA916DFD2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D1085E4-E532-421E-8AAD-C181A8EC57AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31815" yWindow="2940" windowWidth="21600" windowHeight="10920" activeTab="2" xr2:uid="{8EFD0542-B832-47AD-A0F7-47D90D0B881B}"/>
+    <workbookView xWindow="32850" yWindow="3975" windowWidth="21600" windowHeight="10920" activeTab="2" xr2:uid="{8EFD0542-B832-47AD-A0F7-47D90D0B881B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12520,8 +12520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{297960EB-DBC8-44A4-9F73-359D156C6248}">
   <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="71" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="71" workbookViewId="0">
+      <selection activeCell="P42" sqref="P42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13958,7 +13958,7 @@
         <v>2.1299999999999999E-2</v>
       </c>
       <c r="L35">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="M35">
         <v>0</v>

--- a/GCs.xlsx
+++ b/GCs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natur\Documents\AOBaddies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D1085E4-E532-421E-8AAD-C181A8EC57AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B1638C-0C22-4462-8B96-0F503992A676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32850" yWindow="3975" windowWidth="21600" windowHeight="10920" activeTab="2" xr2:uid="{8EFD0542-B832-47AD-A0F7-47D90D0B881B}"/>
+    <workbookView xWindow="32895" yWindow="4020" windowWidth="21600" windowHeight="11055" activeTab="2" xr2:uid="{8EFD0542-B832-47AD-A0F7-47D90D0B881B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12520,8 +12520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{297960EB-DBC8-44A4-9F73-359D156C6248}">
   <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="71" workbookViewId="0">
-      <selection activeCell="P42" sqref="P42"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="71" workbookViewId="0">
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
